--- a/LOCATION SHEETS/1677sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1677sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7BB9FE-916B-3F46-88B2-F8868E47A99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439269D2-B02F-4C47-985B-8F141F25FC98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="1001">
   <si>
     <t>LOCATIONS FOR MIXTURE OF DECADES</t>
   </si>
@@ -964,9 +964,6 @@
   </si>
   <si>
     <t>Just Jan-Dec 1800</t>
-  </si>
-  <si>
-    <t>LINCOLN</t>
   </si>
   <si>
     <t>SK 978718</t>
@@ -3148,9 +3145,6 @@
     <t>RR115</t>
   </si>
   <si>
-    <t>LARGS?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3476,9 +3470,6 @@
     <t>BUSHEY HEATH, STANMORE, WATFORD</t>
   </si>
   <si>
-    <t>HIGH WYCOMBE ST MARY'S COTTAGE BUCKS</t>
-  </si>
-  <si>
     <t>Only annual totals and only for 1917-1819</t>
   </si>
   <si>
@@ -3935,6 +3926,21 @@
   </si>
   <si>
     <t>RR237</t>
+  </si>
+  <si>
+    <t>LINCOLN (UNKNOWN)</t>
+  </si>
+  <si>
+    <t>RR253</t>
+  </si>
+  <si>
+    <t>LARGS</t>
+  </si>
+  <si>
+    <t>HIGH WYCOMBE ST MARY'S COTTAGE</t>
+  </si>
+  <si>
+    <t>RR270</t>
   </si>
 </sst>
 </file>
@@ -4169,7 +4175,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4518,8 +4572,8 @@
   <dimension ref="A1:K1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H335" sqref="H335"/>
+      <pane ySplit="6" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D454" sqref="D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4708,7 +4762,7 @@
         <v>1790</v>
       </c>
       <c r="H9" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="J9" s="28" t="s">
         <v>25</v>
@@ -4738,7 +4792,7 @@
         <v>1800</v>
       </c>
       <c r="H10" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>27</v>
@@ -4771,7 +4825,7 @@
         <v>1810</v>
       </c>
       <c r="H11" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>25</v>
@@ -4799,7 +4853,7 @@
         <v>1770</v>
       </c>
       <c r="H12" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="K12" s="28" t="s">
         <v>33</v>
@@ -4824,7 +4878,7 @@
         <v>1780</v>
       </c>
       <c r="H13" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>34</v>
@@ -4854,7 +4908,7 @@
         <v>1780</v>
       </c>
       <c r="H14" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>38</v>
@@ -8456,8 +8510,8 @@
         <v>154</v>
       </c>
       <c r="C156" s="25"/>
-      <c r="D156" s="23" t="s">
-        <v>311</v>
+      <c r="D156" s="4" t="s">
+        <v>996</v>
       </c>
       <c r="E156" s="26"/>
       <c r="F156" s="28" t="s">
@@ -8466,11 +8520,14 @@
       <c r="G156" s="30">
         <v>1800</v>
       </c>
+      <c r="I156" s="4" t="s">
+        <v>996</v>
+      </c>
       <c r="J156" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="K156" s="28" t="s">
         <v>312</v>
-      </c>
-      <c r="K156" s="28" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="13">
@@ -8482,7 +8539,7 @@
       </c>
       <c r="C157" s="25"/>
       <c r="D157" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" s="28" t="s">
@@ -8492,10 +8549,10 @@
         <v>1790</v>
       </c>
       <c r="J157" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="K157" s="28" t="s">
         <v>315</v>
-      </c>
-      <c r="K157" s="28" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="13">
@@ -8507,7 +8564,7 @@
       </c>
       <c r="C158" s="25"/>
       <c r="D158" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E158" s="26"/>
       <c r="F158" s="28" t="s">
@@ -8517,10 +8574,10 @@
         <v>1790</v>
       </c>
       <c r="J158" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="K158" s="28" t="s">
         <v>318</v>
-      </c>
-      <c r="K158" s="28" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="13">
@@ -8531,10 +8588,10 @@
         <v>157</v>
       </c>
       <c r="C159" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="D159" s="23" t="s">
         <v>320</v>
-      </c>
-      <c r="D159" s="23" t="s">
-        <v>321</v>
       </c>
       <c r="E159" s="26"/>
       <c r="F159" s="28" t="s">
@@ -8544,10 +8601,10 @@
         <v>1790</v>
       </c>
       <c r="J159" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="K159" s="28" t="s">
         <v>322</v>
-      </c>
-      <c r="K159" s="28" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="13">
@@ -8558,10 +8615,10 @@
         <v>158</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E160" s="26"/>
       <c r="F160" s="28" t="s">
@@ -8571,10 +8628,10 @@
         <v>1800</v>
       </c>
       <c r="J160" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K160" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="13">
@@ -8585,10 +8642,10 @@
         <v>159</v>
       </c>
       <c r="C161" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E161" s="26"/>
       <c r="F161" s="28" t="s">
@@ -8598,10 +8655,10 @@
         <v>1800</v>
       </c>
       <c r="J161" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K161" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="13">
@@ -8613,7 +8670,7 @@
       </c>
       <c r="C162" s="25"/>
       <c r="D162" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E162" s="26"/>
       <c r="F162" s="28" t="s">
@@ -8623,10 +8680,10 @@
         <v>1810</v>
       </c>
       <c r="J162" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K162" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="13">
@@ -8637,10 +8694,10 @@
         <v>161</v>
       </c>
       <c r="C163" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D163" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>329</v>
       </c>
       <c r="E163" s="26"/>
       <c r="F163" s="28" t="s">
@@ -8653,10 +8710,10 @@
         <v>2675</v>
       </c>
       <c r="J163" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="K163" s="28" t="s">
         <v>330</v>
-      </c>
-      <c r="K163" s="28" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="13">
@@ -8667,7 +8724,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D164" s="23" t="s">
         <v>20</v>
@@ -8683,13 +8740,13 @@
         <v>2675</v>
       </c>
       <c r="I164" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="J164" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="K164" s="28" t="s">
         <v>332</v>
-      </c>
-      <c r="J164" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="K164" s="28" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="13">
@@ -8700,10 +8757,10 @@
         <v>163</v>
       </c>
       <c r="C165" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D165" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="D165" s="23" t="s">
-        <v>329</v>
       </c>
       <c r="E165" s="26"/>
       <c r="F165" s="28" t="s">
@@ -8716,10 +8773,10 @@
         <v>2675</v>
       </c>
       <c r="J165" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K165" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="13">
@@ -8730,10 +8787,10 @@
         <v>164</v>
       </c>
       <c r="C166" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D166" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="D166" s="23" t="s">
-        <v>329</v>
       </c>
       <c r="E166" s="26"/>
       <c r="F166" s="28" t="s">
@@ -8746,10 +8803,10 @@
         <v>2675</v>
       </c>
       <c r="J166" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K166" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="13">
@@ -8760,10 +8817,10 @@
         <v>165</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E167" s="26"/>
       <c r="F167" s="28" t="s">
@@ -8776,10 +8833,10 @@
         <v>2675</v>
       </c>
       <c r="J167" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K167" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="13">
@@ -8790,10 +8847,10 @@
         <v>166</v>
       </c>
       <c r="C168" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D168" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="D168" s="23" t="s">
-        <v>329</v>
       </c>
       <c r="E168" s="26"/>
       <c r="F168" s="28" t="s">
@@ -8806,10 +8863,10 @@
         <v>2675</v>
       </c>
       <c r="J168" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K168" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="13">
@@ -8820,10 +8877,10 @@
         <v>167</v>
       </c>
       <c r="C169" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E169" s="26"/>
       <c r="F169" s="28" t="s">
@@ -8836,10 +8893,10 @@
         <v>2675</v>
       </c>
       <c r="J169" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K169" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="13">
@@ -8861,13 +8918,13 @@
         <v>1800</v>
       </c>
       <c r="I170" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="J170" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="J170" s="28" t="s">
-        <v>341</v>
-      </c>
       <c r="K170" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="13">
@@ -8879,7 +8936,7 @@
       </c>
       <c r="C171" s="25"/>
       <c r="D171" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E171" s="26"/>
       <c r="F171" s="28" t="s">
@@ -8889,10 +8946,10 @@
         <v>1810</v>
       </c>
       <c r="J171" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="K171" s="28" t="s">
         <v>343</v>
-      </c>
-      <c r="K171" s="28" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="13">
@@ -8904,7 +8961,7 @@
       </c>
       <c r="C172" s="25"/>
       <c r="D172" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E172" s="26"/>
       <c r="F172" s="28" t="s">
@@ -8914,10 +8971,10 @@
         <v>1810</v>
       </c>
       <c r="J172" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="K172" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="K172" s="28" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="13">
@@ -8928,7 +8985,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D173" s="23" t="s">
         <v>20</v>
@@ -8941,13 +8998,13 @@
         <v>1830</v>
       </c>
       <c r="I173" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="J173" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="J173" s="28" t="s">
+      <c r="K173" s="28" t="s">
         <v>350</v>
-      </c>
-      <c r="K173" s="28" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="13">
@@ -8958,7 +9015,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D174" s="23" t="s">
         <v>20</v>
@@ -8971,13 +9028,13 @@
         <v>1840</v>
       </c>
       <c r="I174" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="J174" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="J174" s="28" t="s">
-        <v>350</v>
-      </c>
       <c r="K174" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="13">
@@ -8989,7 +9046,7 @@
       </c>
       <c r="C175" s="25"/>
       <c r="D175" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E175" s="26"/>
       <c r="F175" s="28" t="s">
@@ -8999,7 +9056,7 @@
         <v>1770</v>
       </c>
       <c r="K175" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="13">
@@ -9010,10 +9067,10 @@
         <v>174</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E176" s="26"/>
       <c r="F176" s="28" t="s">
@@ -9023,10 +9080,10 @@
         <v>1770</v>
       </c>
       <c r="J176" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="K176" s="28" t="s">
         <v>356</v>
-      </c>
-      <c r="K176" s="28" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="13">
@@ -9037,10 +9094,10 @@
         <v>175</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E177" s="26"/>
       <c r="F177" s="28" t="s">
@@ -9050,7 +9107,7 @@
         <v>1770</v>
       </c>
       <c r="K177" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="13">
@@ -9061,10 +9118,10 @@
         <v>176</v>
       </c>
       <c r="C178" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E178" s="26"/>
       <c r="F178" s="28" t="s">
@@ -9074,7 +9131,7 @@
         <v>1780</v>
       </c>
       <c r="K178" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="13">
@@ -9086,7 +9143,7 @@
       </c>
       <c r="C179" s="25"/>
       <c r="D179" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E179" s="26"/>
       <c r="F179" s="28" t="s">
@@ -9096,7 +9153,7 @@
         <v>1780</v>
       </c>
       <c r="K179" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="13">
@@ -9107,10 +9164,10 @@
         <v>178</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E180" s="26"/>
       <c r="F180" s="28" t="s">
@@ -9120,7 +9177,7 @@
         <v>1780</v>
       </c>
       <c r="K180" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="13">
@@ -9131,10 +9188,10 @@
         <v>179</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E181" s="26"/>
       <c r="F181" s="28" t="s">
@@ -9144,10 +9201,10 @@
         <v>1790</v>
       </c>
       <c r="J181" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K181" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="13">
@@ -9159,7 +9216,7 @@
       </c>
       <c r="C182" s="25"/>
       <c r="D182" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E182" s="26"/>
       <c r="F182" s="28" t="s">
@@ -9169,7 +9226,7 @@
         <v>1790</v>
       </c>
       <c r="K182" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="13">
@@ -9181,7 +9238,7 @@
       </c>
       <c r="C183" s="25"/>
       <c r="D183" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E183" s="26"/>
       <c r="F183" s="28" t="s">
@@ -9191,10 +9248,10 @@
         <v>1780</v>
       </c>
       <c r="I183" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="K183" s="28" t="s">
         <v>364</v>
-      </c>
-      <c r="K183" s="28" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="13">
@@ -9206,7 +9263,7 @@
       </c>
       <c r="C184" s="25"/>
       <c r="D184" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E184" s="26"/>
       <c r="F184" s="28" t="s">
@@ -9236,10 +9293,10 @@
         <v>1790</v>
       </c>
       <c r="I185" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K185" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="13">
@@ -9253,7 +9310,7 @@
         <v>36</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E186" s="26"/>
       <c r="F186" s="28" t="s">
@@ -9263,7 +9320,7 @@
         <v>1800</v>
       </c>
       <c r="K186" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="13">
@@ -9275,7 +9332,7 @@
       </c>
       <c r="C187" s="25"/>
       <c r="D187" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E187" s="26"/>
       <c r="F187" s="28" t="s">
@@ -9285,7 +9342,7 @@
         <v>1810</v>
       </c>
       <c r="K187" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="13">
@@ -9307,13 +9364,13 @@
         <v>1790</v>
       </c>
       <c r="H188" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="I188" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="K188" s="28" t="s">
         <v>369</v>
-      </c>
-      <c r="K188" s="28" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="13">
@@ -9335,10 +9392,10 @@
         <v>1800</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K189" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="13">
@@ -9360,10 +9417,10 @@
         <v>1800</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K190" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="13">
@@ -9385,10 +9442,10 @@
         <v>1810</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K191" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="13">
@@ -9410,10 +9467,10 @@
         <v>1810</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K192" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="13">
@@ -9435,10 +9492,10 @@
         <v>1820</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K193" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="13">
@@ -9460,10 +9517,10 @@
         <v>1830</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K194" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="13">
@@ -9485,10 +9542,10 @@
         <v>1840</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K195" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="13">
@@ -9510,10 +9567,10 @@
         <v>1760</v>
       </c>
       <c r="I196" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="K196" s="28" t="s">
         <v>376</v>
-      </c>
-      <c r="K196" s="28" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="13">
@@ -9524,10 +9581,10 @@
         <v>195</v>
       </c>
       <c r="C197" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="D197" s="23" t="s">
         <v>378</v>
-      </c>
-      <c r="D197" s="23" t="s">
-        <v>379</v>
       </c>
       <c r="E197" s="26"/>
       <c r="F197" s="28" t="s">
@@ -9537,10 +9594,10 @@
         <v>1830</v>
       </c>
       <c r="J197" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="K197" s="28" t="s">
         <v>380</v>
-      </c>
-      <c r="K197" s="28" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="13">
@@ -9551,10 +9608,10 @@
         <v>196</v>
       </c>
       <c r="C198" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E198" s="26"/>
       <c r="F198" s="28" t="s">
@@ -9564,10 +9621,10 @@
         <v>1840</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K198" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="13">
@@ -9578,10 +9635,10 @@
         <v>197</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E199" s="26"/>
       <c r="F199" s="28" t="s">
@@ -9591,7 +9648,7 @@
         <v>1830</v>
       </c>
       <c r="K199" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="13">
@@ -9602,7 +9659,7 @@
         <v>198</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D200" s="23" t="s">
         <v>20</v>
@@ -9615,10 +9672,10 @@
         <v>1840</v>
       </c>
       <c r="I200" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="K200" s="28" t="s">
         <v>386</v>
-      </c>
-      <c r="K200" s="28" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="13">
@@ -9630,7 +9687,7 @@
       </c>
       <c r="C201" s="25"/>
       <c r="D201" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E201" s="26"/>
       <c r="F201" s="28" t="s">
@@ -9640,7 +9697,7 @@
         <v>1790</v>
       </c>
       <c r="K201" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="13">
@@ -9651,10 +9708,10 @@
         <v>200</v>
       </c>
       <c r="C202" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="D202" s="23" t="s">
         <v>390</v>
-      </c>
-      <c r="D202" s="23" t="s">
-        <v>391</v>
       </c>
       <c r="E202" s="26"/>
       <c r="F202" s="28" t="s">
@@ -9667,10 +9724,10 @@
         <v>574251</v>
       </c>
       <c r="J202" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="K202" s="28" t="s">
         <v>392</v>
-      </c>
-      <c r="K202" s="28" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="13">
@@ -9681,10 +9738,10 @@
         <v>201</v>
       </c>
       <c r="C203" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E203" s="26"/>
       <c r="F203" s="28" t="s">
@@ -9697,10 +9754,10 @@
         <v>574251</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K203" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="13">
@@ -9711,7 +9768,7 @@
         <v>202</v>
       </c>
       <c r="C204" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D204" s="23" t="s">
         <v>20</v>
@@ -9727,13 +9784,13 @@
         <v>574251</v>
       </c>
       <c r="I204" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="J204" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="K204" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="J204" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="K204" s="28" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="13">
@@ -9744,10 +9801,10 @@
         <v>203</v>
       </c>
       <c r="C205" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E205" s="26"/>
       <c r="F205" s="28" t="s">
@@ -9760,10 +9817,10 @@
         <v>574251</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K205" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="13">
@@ -9774,7 +9831,7 @@
         <v>204</v>
       </c>
       <c r="C206" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D206" s="23" t="s">
         <v>20</v>
@@ -9790,13 +9847,13 @@
         <v>574251</v>
       </c>
       <c r="I206" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="J206" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="J206" s="28" t="s">
-        <v>392</v>
-      </c>
       <c r="K206" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="13">
@@ -9807,7 +9864,7 @@
         <v>205</v>
       </c>
       <c r="C207" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D207" s="23" t="s">
         <v>20</v>
@@ -9823,13 +9880,13 @@
         <v>574251</v>
       </c>
       <c r="I207" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="J207" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="K207" s="28" t="s">
         <v>399</v>
-      </c>
-      <c r="J207" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="K207" s="28" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="13">
@@ -9841,7 +9898,7 @@
       </c>
       <c r="C208" s="25"/>
       <c r="D208" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E208" s="26"/>
       <c r="F208" s="28" t="s">
@@ -9851,7 +9908,7 @@
         <v>1780</v>
       </c>
       <c r="K208" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="13">
@@ -9863,7 +9920,7 @@
       </c>
       <c r="C209" s="25"/>
       <c r="D209" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E209" s="26"/>
       <c r="F209" s="28" t="s">
@@ -9873,7 +9930,7 @@
         <v>1790</v>
       </c>
       <c r="K209" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="13">
@@ -9885,7 +9942,7 @@
       </c>
       <c r="C210" s="25"/>
       <c r="D210" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E210" s="26"/>
       <c r="F210" s="28" t="s">
@@ -9905,7 +9962,7 @@
       </c>
       <c r="C211" s="25"/>
       <c r="D211" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E211" s="26"/>
       <c r="F211" s="28" t="s">
@@ -9915,7 +9972,7 @@
         <v>1790</v>
       </c>
       <c r="K211" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="13">
@@ -9927,7 +9984,7 @@
       </c>
       <c r="C212" s="25"/>
       <c r="D212" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E212" s="26"/>
       <c r="F212" s="28" t="s">
@@ -9937,7 +9994,7 @@
         <v>1790</v>
       </c>
       <c r="K212" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="13">
@@ -9948,7 +10005,7 @@
         <v>211</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D213" s="23" t="s">
         <v>20</v>
@@ -9964,13 +10021,13 @@
         <v>587611</v>
       </c>
       <c r="I213" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="J213" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="J213" s="28" t="s">
+      <c r="K213" s="28" t="s">
         <v>407</v>
-      </c>
-      <c r="K213" s="28" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="13">
@@ -9981,10 +10038,10 @@
         <v>212</v>
       </c>
       <c r="C214" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E214" s="26"/>
       <c r="F214" s="28" t="s">
@@ -9997,10 +10054,10 @@
         <v>587611</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K214" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="13">
@@ -10012,7 +10069,7 @@
       </c>
       <c r="C215" s="25"/>
       <c r="D215" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E215" s="26"/>
       <c r="F215" s="28" t="s">
@@ -10022,7 +10079,7 @@
         <v>1780</v>
       </c>
       <c r="K215" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="13">
@@ -10034,7 +10091,7 @@
       </c>
       <c r="C216" s="25"/>
       <c r="D216" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E216" s="26"/>
       <c r="F216" s="28" t="s">
@@ -10044,7 +10101,7 @@
         <v>1780</v>
       </c>
       <c r="K216" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="13">
@@ -10056,7 +10113,7 @@
       </c>
       <c r="C217" s="25"/>
       <c r="D217" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E217" s="26"/>
       <c r="F217" s="28" t="s">
@@ -10066,7 +10123,7 @@
         <v>1790</v>
       </c>
       <c r="K217" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="13">
@@ -10078,7 +10135,7 @@
       </c>
       <c r="C218" s="25"/>
       <c r="D218" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E218" s="26"/>
       <c r="F218" s="28" t="s">
@@ -10088,7 +10145,7 @@
         <v>1790</v>
       </c>
       <c r="K218" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="13">
@@ -10099,7 +10156,7 @@
         <v>217</v>
       </c>
       <c r="C219" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D219" s="23" t="s">
         <v>20</v>
@@ -10112,10 +10169,10 @@
         <v>1790</v>
       </c>
       <c r="I219" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="K219" s="28" t="s">
         <v>417</v>
-      </c>
-      <c r="K219" s="28" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="13">
@@ -10127,7 +10184,7 @@
       </c>
       <c r="C220" s="25"/>
       <c r="D220" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E220" s="26"/>
       <c r="F220" s="28" t="s">
@@ -10137,7 +10194,7 @@
         <v>1790</v>
       </c>
       <c r="K220" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="13">
@@ -10148,10 +10205,10 @@
         <v>219</v>
       </c>
       <c r="C221" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="D221" s="23" t="s">
         <v>419</v>
-      </c>
-      <c r="D221" s="23" t="s">
-        <v>420</v>
       </c>
       <c r="E221" s="26"/>
       <c r="F221" s="28" t="s">
@@ -10161,10 +10218,10 @@
         <v>1820</v>
       </c>
       <c r="H221" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="K221" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="13">
@@ -10175,10 +10232,10 @@
         <v>220</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E222" s="26"/>
       <c r="F222" s="28" t="s">
@@ -10196,10 +10253,10 @@
         <v>221</v>
       </c>
       <c r="C223" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E223" s="26"/>
       <c r="F223" s="28" t="s">
@@ -10209,7 +10266,7 @@
         <v>1840</v>
       </c>
       <c r="K223" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="13">
@@ -10220,10 +10277,10 @@
         <v>222</v>
       </c>
       <c r="C224" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D224" s="23" t="s">
         <v>423</v>
-      </c>
-      <c r="D224" s="23" t="s">
-        <v>424</v>
       </c>
       <c r="E224" s="26"/>
       <c r="F224" s="28" t="s">
@@ -10233,10 +10290,10 @@
         <v>1820</v>
       </c>
       <c r="H224" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="13">
@@ -10247,10 +10304,10 @@
         <v>223</v>
       </c>
       <c r="C225" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E225" s="26"/>
       <c r="F225" s="28" t="s">
@@ -10260,7 +10317,7 @@
         <v>1830</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="13">
@@ -10276,13 +10333,13 @@
       </c>
       <c r="E226" s="26"/>
       <c r="F226" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G226" s="30">
         <v>1840</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="13">
@@ -10293,10 +10350,10 @@
         <v>225</v>
       </c>
       <c r="C227" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="D227" s="23" t="s">
         <v>429</v>
-      </c>
-      <c r="D227" s="23" t="s">
-        <v>430</v>
       </c>
       <c r="E227" s="26"/>
       <c r="F227" s="28" t="s">
@@ -10309,10 +10366,10 @@
         <v>562849</v>
       </c>
       <c r="J227" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="K227" s="28" t="s">
         <v>431</v>
-      </c>
-      <c r="K227" s="28" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="13">
@@ -10323,10 +10380,10 @@
         <v>226</v>
       </c>
       <c r="C228" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E228" s="26"/>
       <c r="F228" s="28" t="s">
@@ -10339,10 +10396,10 @@
         <v>562849</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K228" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="13">
@@ -10359,14 +10416,14 @@
     </row>
     <row r="230" spans="1:11" ht="13">
       <c r="A230" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B230" s="24">
         <v>2</v>
       </c>
       <c r="C230" s="25"/>
       <c r="D230" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E230" s="26"/>
       <c r="F230" s="28" t="s">
@@ -10376,19 +10433,19 @@
         <v>1770</v>
       </c>
       <c r="K230" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="13">
       <c r="A231" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B231" s="24">
         <v>3</v>
       </c>
       <c r="C231" s="25"/>
       <c r="D231" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E231" s="26"/>
       <c r="F231" s="28" t="s">
@@ -10398,18 +10455,18 @@
         <v>1780</v>
       </c>
       <c r="K231" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="13">
       <c r="A232" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B232" s="24">
         <v>4</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D232" s="23" t="s">
         <v>20</v>
@@ -10422,21 +10479,21 @@
         <v>1820</v>
       </c>
       <c r="I232" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="K232" s="28" t="s">
         <v>441</v>
-      </c>
-      <c r="K232" s="28" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="13">
       <c r="A233" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B233" s="24">
         <v>5</v>
       </c>
       <c r="C233" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D233" s="23" t="s">
         <v>20</v>
@@ -10449,7 +10506,7 @@
         <v>1830</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K233" s="28" t="s">
         <v>173</v>
@@ -10457,13 +10514,13 @@
     </row>
     <row r="234" spans="1:11" ht="13">
       <c r="A234" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B234" s="24">
         <v>6</v>
       </c>
       <c r="C234" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D234" s="23" t="s">
         <v>20</v>
@@ -10476,22 +10533,22 @@
         <v>1840</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K234" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="13">
       <c r="A235" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B235" s="24">
         <v>7</v>
       </c>
       <c r="C235" s="25"/>
       <c r="D235" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E235" s="26"/>
       <c r="F235" s="28" t="s">
@@ -10504,18 +10561,18 @@
         <v>2902</v>
       </c>
       <c r="K235" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="13">
       <c r="A236" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B236" s="24">
         <v>8</v>
       </c>
       <c r="C236" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D236" s="23" t="s">
         <v>20</v>
@@ -10531,24 +10588,24 @@
         <v>2902</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K236" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="13">
       <c r="A237" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B237" s="24">
         <v>9</v>
       </c>
       <c r="C237" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E237" s="26"/>
       <c r="F237" s="28" t="s">
@@ -10566,13 +10623,13 @@
     </row>
     <row r="238" spans="1:11" ht="13">
       <c r="A238" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B238" s="24">
         <v>10</v>
       </c>
       <c r="C238" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D238" s="23" t="s">
         <v>20</v>
@@ -10585,24 +10642,24 @@
         <v>1830</v>
       </c>
       <c r="I238" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="J238" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="J238" s="28" t="s">
+      <c r="K238" s="28" t="s">
         <v>448</v>
-      </c>
-      <c r="K238" s="28" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="13">
       <c r="A239" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B239" s="24">
         <v>11</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D239" s="23" t="s">
         <v>20</v>
@@ -10615,27 +10672,27 @@
         <v>1840</v>
       </c>
       <c r="I239" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="J239" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="J239" s="28" t="s">
+      <c r="K239" s="28" t="s">
         <v>448</v>
-      </c>
-      <c r="K239" s="28" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="13">
       <c r="A240" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B240" s="24">
         <v>12</v>
       </c>
       <c r="C240" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E240" s="26"/>
       <c r="F240" s="28" t="s">
@@ -10645,24 +10702,24 @@
         <v>1830</v>
       </c>
       <c r="J240" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="K240" s="28" t="s">
         <v>451</v>
-      </c>
-      <c r="K240" s="28" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="13">
       <c r="A241" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B241" s="24">
         <v>13</v>
       </c>
       <c r="C241" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E241" s="26"/>
       <c r="F241" s="28" t="s">
@@ -10672,55 +10729,55 @@
         <v>1840</v>
       </c>
       <c r="J241" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="K241" s="33" t="s">
         <v>451</v>
-      </c>
-      <c r="K241" s="33" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="13">
       <c r="A242" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B242" s="24">
         <v>14</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D242" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E242" s="26"/>
       <c r="F242" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G242" s="30">
         <v>1840</v>
       </c>
       <c r="H242" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="I242" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="I242" s="28" t="s">
+      <c r="J242" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="J242" s="34" t="s">
+      <c r="K242" s="28" t="s">
         <v>457</v>
-      </c>
-      <c r="K242" s="28" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="13">
       <c r="A243" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B243" s="24">
         <v>15</v>
       </c>
       <c r="C243" s="25"/>
       <c r="D243" s="23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E243" s="26"/>
       <c r="F243" s="28" t="s">
@@ -10730,19 +10787,19 @@
         <v>1840</v>
       </c>
       <c r="K243" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="13">
       <c r="A244" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B244" s="24">
         <v>16</v>
       </c>
       <c r="C244" s="25"/>
       <c r="D244" s="23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E244" s="26"/>
       <c r="F244" s="28" t="s">
@@ -10752,85 +10809,85 @@
         <v>1790</v>
       </c>
       <c r="K244" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="13">
       <c r="A245" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B245" s="24">
         <v>17</v>
       </c>
       <c r="C245" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D245" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E245" s="26"/>
       <c r="F245" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G245" s="30">
         <v>1840</v>
       </c>
       <c r="H245" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="I245" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="I245" s="28" t="s">
+      <c r="J245" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="J245" s="28" t="s">
+      <c r="K245" s="28" t="s">
         <v>467</v>
-      </c>
-      <c r="K245" s="28" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="13">
       <c r="A246" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B246" s="24">
         <v>18</v>
       </c>
       <c r="C246" s="29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D246" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E246" s="26"/>
       <c r="F246" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G246" s="30">
         <v>1840</v>
       </c>
       <c r="H246" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="I246" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="I246" s="28" t="s">
+      <c r="J246" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="J246" s="28" t="s">
+      <c r="K246" s="28" t="s">
         <v>473</v>
-      </c>
-      <c r="K246" s="28" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="13">
       <c r="A247" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B247" s="24">
         <v>19</v>
       </c>
       <c r="C247" s="25"/>
       <c r="D247" s="23" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E247" s="26"/>
       <c r="F247" s="28" t="s">
@@ -10840,19 +10897,19 @@
         <v>1820</v>
       </c>
       <c r="K247" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="13">
       <c r="A248" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B248" s="24">
         <v>20</v>
       </c>
       <c r="C248" s="25"/>
       <c r="D248" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E248" s="26"/>
       <c r="F248" s="28" t="s">
@@ -10862,19 +10919,19 @@
         <v>1720</v>
       </c>
       <c r="K248" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="13">
       <c r="A249" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B249" s="24">
         <v>21</v>
       </c>
       <c r="C249" s="25"/>
       <c r="D249" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E249" s="26"/>
       <c r="F249" s="28" t="s">
@@ -10884,19 +10941,19 @@
         <v>1790</v>
       </c>
       <c r="K249" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="13">
       <c r="A250" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B250" s="24">
         <v>22</v>
       </c>
       <c r="C250" s="25"/>
       <c r="D250" s="23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E250" s="26"/>
       <c r="F250" s="28" t="s">
@@ -10906,19 +10963,19 @@
         <v>1720</v>
       </c>
       <c r="K250" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="13">
       <c r="A251" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B251" s="24">
         <v>23</v>
       </c>
       <c r="C251" s="25"/>
       <c r="D251" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E251" s="26"/>
       <c r="F251" s="28" t="s">
@@ -10928,19 +10985,19 @@
         <v>1770</v>
       </c>
       <c r="K251" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="13">
       <c r="A252" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B252" s="24">
         <v>24</v>
       </c>
       <c r="C252" s="25"/>
       <c r="D252" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E252" s="26"/>
       <c r="F252" s="28" t="s">
@@ -10953,19 +11010,19 @@
         <v>3705</v>
       </c>
       <c r="K252" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="13">
       <c r="A253" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B253" s="24">
         <v>25</v>
       </c>
       <c r="C253" s="25"/>
       <c r="D253" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E253" s="26"/>
       <c r="F253" s="28" t="s">
@@ -10978,19 +11035,19 @@
         <v>3705</v>
       </c>
       <c r="K253" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="13">
       <c r="A254" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B254" s="24">
         <v>30</v>
       </c>
       <c r="C254" s="25"/>
       <c r="D254" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E254" s="26"/>
       <c r="F254" s="28" t="s">
@@ -11003,21 +11060,21 @@
         <v>3705</v>
       </c>
       <c r="K254" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="13">
       <c r="A255" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B255" s="24">
         <v>31</v>
       </c>
       <c r="C255" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E255" s="26"/>
       <c r="F255" s="28" t="s">
@@ -11030,12 +11087,12 @@
         <v>3705</v>
       </c>
       <c r="K255" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="13">
       <c r="A256" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B256" s="24">
         <v>32</v>
@@ -11055,24 +11112,24 @@
         <v>3705</v>
       </c>
       <c r="I256" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="K256" s="28" t="s">
         <v>491</v>
-      </c>
-      <c r="K256" s="28" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="13">
       <c r="A257" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B257" s="24">
         <v>33</v>
       </c>
       <c r="C257" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="D257" s="23" t="s">
         <v>493</v>
-      </c>
-      <c r="D257" s="23" t="s">
-        <v>494</v>
       </c>
       <c r="E257" s="26"/>
       <c r="F257" s="28" t="s">
@@ -11082,24 +11139,24 @@
         <v>1870</v>
       </c>
       <c r="J257" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="K257" s="28" t="s">
         <v>495</v>
-      </c>
-      <c r="K257" s="28" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="13">
       <c r="A258" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B258" s="24">
         <v>34</v>
       </c>
       <c r="C258" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="D258" s="23" t="s">
         <v>493</v>
-      </c>
-      <c r="D258" s="23" t="s">
-        <v>494</v>
       </c>
       <c r="E258" s="26"/>
       <c r="F258" s="28" t="s">
@@ -11109,21 +11166,21 @@
         <v>1880</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K258" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="13">
       <c r="A259" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B259" s="24">
         <v>35</v>
       </c>
       <c r="C259" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D259" s="23" t="s">
         <v>20</v>
@@ -11136,21 +11193,21 @@
         <v>1870</v>
       </c>
       <c r="I259" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K259" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="13">
       <c r="A260" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B260" s="24">
         <v>36</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D260" s="23" t="s">
         <v>20</v>
@@ -11163,24 +11220,24 @@
         <v>1860</v>
       </c>
       <c r="I260" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="K260" s="28" t="s">
         <v>500</v>
-      </c>
-      <c r="K260" s="28" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="13">
       <c r="A261" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B261" s="24">
         <v>37</v>
       </c>
       <c r="C261" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="D261" s="23" t="s">
         <v>499</v>
-      </c>
-      <c r="D261" s="23" t="s">
-        <v>500</v>
       </c>
       <c r="E261" s="26"/>
       <c r="F261" s="28" t="s">
@@ -11190,12 +11247,12 @@
         <v>1870</v>
       </c>
       <c r="K261" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="13">
       <c r="A262" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B262" s="24">
         <v>38</v>
@@ -11214,27 +11271,27 @@
         <v>1880</v>
       </c>
       <c r="I262" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="J262" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="J262" s="28" t="s">
+      <c r="K262" s="28" t="s">
         <v>504</v>
-      </c>
-      <c r="K262" s="28" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="13">
       <c r="A263" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B263" s="24">
         <v>39</v>
       </c>
       <c r="C263" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="D263" s="23" t="s">
         <v>506</v>
-      </c>
-      <c r="D263" s="23" t="s">
-        <v>507</v>
       </c>
       <c r="E263" s="26"/>
       <c r="F263" s="28" t="s">
@@ -11244,21 +11301,21 @@
         <v>1860</v>
       </c>
       <c r="J263" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="K263" s="28" t="s">
         <v>508</v>
-      </c>
-      <c r="K263" s="28" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="13">
       <c r="A264" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B264" s="24">
         <v>40</v>
       </c>
       <c r="C264" s="29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D264" s="23" t="s">
         <v>20</v>
@@ -11271,18 +11328,18 @@
         <v>1870</v>
       </c>
       <c r="I264" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="J264" s="28" t="s">
         <v>507</v>
       </c>
-      <c r="J264" s="28" t="s">
-        <v>508</v>
-      </c>
       <c r="K264" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="13">
       <c r="A265" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B265" s="24">
         <v>41</v>
@@ -11299,24 +11356,24 @@
         <v>1880</v>
       </c>
       <c r="I265" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="K265" s="28" t="s">
         <v>511</v>
-      </c>
-      <c r="K265" s="28" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="13">
       <c r="A266" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B266" s="24">
         <v>42</v>
       </c>
       <c r="C266" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="D266" s="23" t="s">
         <v>513</v>
-      </c>
-      <c r="D266" s="23" t="s">
-        <v>514</v>
       </c>
       <c r="E266" s="26"/>
       <c r="F266" s="28" t="s">
@@ -11326,190 +11383,190 @@
         <v>1870</v>
       </c>
       <c r="J266" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="K266" s="37" t="s">
         <v>515</v>
-      </c>
-      <c r="K266" s="37" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="13">
       <c r="A267" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B267" s="24">
         <v>43</v>
       </c>
       <c r="C267" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E267" s="26"/>
       <c r="F267" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G267" s="30">
         <v>1880</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K267" s="37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="13">
       <c r="A268" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B268" s="24">
         <v>44</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D268" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E268" s="26"/>
       <c r="F268" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G268" s="30">
         <v>1750</v>
       </c>
       <c r="I268" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="J268" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="J268" s="28" t="s">
+      <c r="K268" s="28" t="s">
         <v>522</v>
-      </c>
-      <c r="K268" s="28" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="13">
       <c r="A269" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B269" s="24">
         <v>45</v>
       </c>
       <c r="C269" s="29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D269" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E269" s="26"/>
       <c r="F269" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G269" s="30">
         <v>1760</v>
       </c>
       <c r="I269" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="J269" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="J269" s="28" t="s">
-        <v>522</v>
-      </c>
       <c r="K269" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="13">
       <c r="A270" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B270" s="24">
         <v>46</v>
       </c>
       <c r="C270" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="D270" s="23" t="s">
         <v>520</v>
-      </c>
-      <c r="D270" s="23" t="s">
-        <v>521</v>
       </c>
       <c r="E270" s="26"/>
       <c r="F270" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G270" s="30">
         <v>1770</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K270" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="13">
       <c r="A271" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B271" s="24">
         <v>47</v>
       </c>
       <c r="C271" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="D271" s="23" t="s">
         <v>520</v>
-      </c>
-      <c r="D271" s="23" t="s">
-        <v>521</v>
       </c>
       <c r="E271" s="26"/>
       <c r="F271" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G271" s="30">
         <v>1780</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K271" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="13">
       <c r="A272" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B272" s="24">
         <v>48</v>
       </c>
       <c r="C272" s="29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E272" s="26"/>
       <c r="F272" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G272" s="30">
         <v>1760</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K272" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="13">
       <c r="A273" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B273" s="24">
         <v>49</v>
       </c>
       <c r="C273" s="25"/>
       <c r="D273" s="23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E273" s="26"/>
       <c r="F273" s="28" t="s">
@@ -11519,19 +11576,19 @@
         <v>1800</v>
       </c>
       <c r="K273" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="13">
       <c r="A274" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B274" s="24">
         <v>50</v>
       </c>
       <c r="C274" s="25"/>
       <c r="D274" s="23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E274" s="26"/>
       <c r="F274" s="28" t="s">
@@ -11541,19 +11598,19 @@
         <v>1810</v>
       </c>
       <c r="K274" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="13">
       <c r="A275" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B275" s="24">
         <v>51</v>
       </c>
       <c r="C275" s="25"/>
       <c r="D275" s="23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E275" s="26"/>
       <c r="F275" s="28" t="s">
@@ -11563,21 +11620,21 @@
         <v>1820</v>
       </c>
       <c r="K275" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="13">
       <c r="A276" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B276" s="24">
         <v>52</v>
       </c>
       <c r="C276" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="D276" s="23" t="s">
         <v>533</v>
-      </c>
-      <c r="D276" s="23" t="s">
-        <v>534</v>
       </c>
       <c r="E276" s="26"/>
       <c r="F276" s="28" t="s">
@@ -11587,15 +11644,15 @@
         <v>1720</v>
       </c>
       <c r="J276" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="K276" s="28" t="s">
         <v>535</v>
-      </c>
-      <c r="K276" s="28" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="13">
       <c r="A277" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B277" s="24">
         <v>53</v>
@@ -11612,19 +11669,19 @@
         <v>1730</v>
       </c>
       <c r="K277" s="28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="13">
       <c r="A278" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B278" s="24">
         <v>54</v>
       </c>
       <c r="C278" s="25"/>
       <c r="D278" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E278" s="26"/>
       <c r="F278" s="28" t="s">
@@ -11634,22 +11691,22 @@
         <v>1780</v>
       </c>
       <c r="J278" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="K278" s="28" t="s">
         <v>539</v>
-      </c>
-      <c r="K278" s="28" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="13">
       <c r="A279" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B279" s="24">
         <v>55</v>
       </c>
       <c r="C279" s="25"/>
       <c r="D279" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E279" s="26"/>
       <c r="F279" s="28" t="s">
@@ -11659,19 +11716,19 @@
         <v>1780</v>
       </c>
       <c r="K279" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="13">
       <c r="A280" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B280" s="24">
         <v>56</v>
       </c>
       <c r="C280" s="25"/>
       <c r="D280" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E280" s="26"/>
       <c r="F280" s="28" t="s">
@@ -11681,21 +11738,21 @@
         <v>1790</v>
       </c>
       <c r="K280" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="281" spans="1:11" ht="13">
       <c r="A281" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B281" s="24">
         <v>57</v>
       </c>
       <c r="C281" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E281" s="26"/>
       <c r="F281" s="28" t="s">
@@ -11705,19 +11762,19 @@
         <v>1790</v>
       </c>
       <c r="K281" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="282" spans="1:11" ht="13">
       <c r="A282" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B282" s="24">
         <v>58</v>
       </c>
       <c r="C282" s="25"/>
       <c r="D282" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E282" s="26"/>
       <c r="F282" s="28" t="s">
@@ -11727,12 +11784,12 @@
         <v>1790</v>
       </c>
       <c r="K282" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="283" spans="1:11" ht="13">
       <c r="A283" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B283" s="24">
         <v>59</v>
@@ -11743,31 +11800,31 @@
       </c>
       <c r="E283" s="26"/>
       <c r="F283" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G283" s="30">
         <v>1790</v>
       </c>
       <c r="I283" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="J283" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="J283" s="28" t="s">
+      <c r="K283" s="38" t="s">
         <v>547</v>
-      </c>
-      <c r="K283" s="38" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="284" spans="1:11" ht="13">
       <c r="A284" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B284" s="24">
         <v>60</v>
       </c>
       <c r="C284" s="25"/>
       <c r="D284" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E284" s="26"/>
       <c r="F284" s="28" t="s">
@@ -11777,19 +11834,19 @@
         <v>1790</v>
       </c>
       <c r="K284" s="28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="13">
       <c r="A285" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B285" s="24">
         <v>61</v>
       </c>
       <c r="C285" s="25"/>
       <c r="D285" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E285" s="26"/>
       <c r="F285" s="28" t="s">
@@ -11799,42 +11856,42 @@
         <v>1800</v>
       </c>
       <c r="K285" s="28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="286" spans="1:11" ht="13">
       <c r="A286" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B286" s="24">
         <v>62</v>
       </c>
       <c r="C286" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D286" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E286" s="26"/>
       <c r="F286" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G286" s="30">
         <v>1790</v>
       </c>
       <c r="I286" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="J286" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="J286" s="28" t="s">
+      <c r="K286" s="28" t="s">
         <v>553</v>
-      </c>
-      <c r="K286" s="28" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="13">
       <c r="A287" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B287" s="24">
         <v>63</v>
@@ -11845,111 +11902,111 @@
       </c>
       <c r="E287" s="26"/>
       <c r="F287" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G287" s="30">
         <v>1790</v>
       </c>
       <c r="I287" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="J287" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="J287" s="28" t="s">
+      <c r="K287" s="38" t="s">
         <v>556</v>
-      </c>
-      <c r="K287" s="38" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="288" spans="1:11" ht="13">
       <c r="A288" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B288" s="24">
         <v>64</v>
       </c>
       <c r="C288" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="D288" s="23" t="s">
         <v>551</v>
-      </c>
-      <c r="D288" s="23" t="s">
-        <v>552</v>
       </c>
       <c r="E288" s="26"/>
       <c r="F288" s="28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G288" s="30">
         <v>1790</v>
       </c>
       <c r="J288" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K288" s="28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="289" spans="1:11" ht="13">
       <c r="A289" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B289" s="24">
         <v>65</v>
       </c>
       <c r="C289" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D289" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E289" s="26"/>
       <c r="F289" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G289" s="30">
         <v>1780</v>
       </c>
       <c r="I289" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="J289" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="J289" s="28" t="s">
-        <v>556</v>
-      </c>
       <c r="K289" s="38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="290" spans="1:11" ht="13">
       <c r="A290" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B290" s="24">
         <v>66</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D290" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E290" s="26"/>
       <c r="F290" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G290" s="30">
         <v>1790</v>
       </c>
       <c r="I290" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="J290" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="J290" s="28" t="s">
-        <v>556</v>
-      </c>
       <c r="K290" s="38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="291" spans="1:11" ht="13">
       <c r="A291" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B291" s="24">
         <v>67</v>
@@ -11960,31 +12017,31 @@
       </c>
       <c r="E291" s="26"/>
       <c r="F291" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G291" s="30">
         <v>1770</v>
       </c>
       <c r="I291" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J291" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="K291" s="38" t="s">
         <v>562</v>
-      </c>
-      <c r="K291" s="38" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="292" spans="1:11" ht="13">
       <c r="A292" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B292" s="24">
         <v>68</v>
       </c>
       <c r="C292" s="25"/>
       <c r="D292" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E292" s="26"/>
       <c r="F292" s="28" t="s">
@@ -11994,12 +12051,12 @@
         <v>1770</v>
       </c>
       <c r="K292" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="13">
       <c r="A293" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B293" s="24">
         <v>69</v>
@@ -12008,7 +12065,7 @@
         <v>36</v>
       </c>
       <c r="D293" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E293" s="26"/>
       <c r="F293" s="28" t="s">
@@ -12018,19 +12075,19 @@
         <v>1770</v>
       </c>
       <c r="K293" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="294" spans="1:11" ht="13">
       <c r="A294" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B294" s="24">
         <v>70</v>
       </c>
       <c r="C294" s="25"/>
       <c r="D294" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E294" s="26"/>
       <c r="F294" s="28" t="s">
@@ -12040,19 +12097,19 @@
         <v>1780</v>
       </c>
       <c r="K294" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="295" spans="1:11" ht="13">
       <c r="A295" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B295" s="24">
         <v>71</v>
       </c>
       <c r="C295" s="25"/>
       <c r="D295" s="23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E295" s="26"/>
       <c r="F295" s="28" t="s">
@@ -12062,21 +12119,21 @@
         <v>1790</v>
       </c>
       <c r="K295" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="296" spans="1:11" ht="13">
       <c r="A296" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B296" s="24">
         <v>72</v>
       </c>
       <c r="C296" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="D296" s="23" t="s">
         <v>569</v>
-      </c>
-      <c r="D296" s="23" t="s">
-        <v>570</v>
       </c>
       <c r="E296" s="26"/>
       <c r="F296" s="28" t="s">
@@ -12086,186 +12143,186 @@
         <v>1770</v>
       </c>
       <c r="J296" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="K296" s="28" t="s">
         <v>571</v>
-      </c>
-      <c r="K296" s="28" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="297" spans="1:11" ht="13">
       <c r="A297" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B297" s="24">
         <v>73</v>
       </c>
       <c r="C297" s="29" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D297" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E297" s="26"/>
       <c r="F297" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G297" s="30">
         <v>1770</v>
       </c>
       <c r="I297" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="J297" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="J297" s="28" t="s">
+      <c r="K297" s="28" t="s">
         <v>574</v>
-      </c>
-      <c r="K297" s="28" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="298" spans="1:11" ht="13">
       <c r="A298" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B298" s="24">
         <v>74</v>
       </c>
       <c r="C298" s="29" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D298" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E298" s="26"/>
       <c r="F298" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G298" s="30">
         <v>1770</v>
       </c>
       <c r="J298" s="28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K298" s="28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="299" spans="1:11" ht="13">
       <c r="A299" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B299" s="24">
         <v>75</v>
       </c>
       <c r="C299" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="D299" s="23" t="s">
         <v>578</v>
-      </c>
-      <c r="D299" s="23" t="s">
-        <v>579</v>
       </c>
       <c r="E299" s="26"/>
       <c r="F299" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G299" s="30">
         <v>1770</v>
       </c>
       <c r="J299" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="K299" s="37" t="s">
         <v>580</v>
-      </c>
-      <c r="K299" s="37" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:11" ht="13">
       <c r="A300" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B300" s="24">
         <v>76</v>
       </c>
       <c r="C300" s="29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E300" s="26"/>
       <c r="F300" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G300" s="30">
         <v>1780</v>
       </c>
       <c r="J300" s="28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K300" s="28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="301" spans="1:11" ht="13">
       <c r="A301" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B301" s="24">
         <v>77</v>
       </c>
       <c r="C301" s="29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D301" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E301" s="26"/>
       <c r="F301" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G301" s="30">
         <v>1770</v>
       </c>
       <c r="I301" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="J301" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="J301" s="28" t="s">
+      <c r="K301" s="28" t="s">
         <v>586</v>
-      </c>
-      <c r="K301" s="28" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="302" spans="1:11" ht="13">
       <c r="A302" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B302" s="24">
         <v>78</v>
       </c>
       <c r="C302" s="29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D302" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E302" s="26"/>
       <c r="F302" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G302" s="30">
         <v>1780</v>
       </c>
       <c r="I302" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="J302" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="J302" s="28" t="s">
-        <v>586</v>
-      </c>
       <c r="K302" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="13">
       <c r="A303" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B303" s="24">
         <v>79</v>
@@ -12274,10 +12331,10 @@
         <v>36</v>
       </c>
       <c r="D303" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="E303" s="23" t="s">
         <v>589</v>
-      </c>
-      <c r="E303" s="23" t="s">
-        <v>590</v>
       </c>
       <c r="F303" s="28" t="s">
         <v>32</v>
@@ -12286,22 +12343,22 @@
         <v>1760</v>
       </c>
       <c r="K303" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="13">
       <c r="A304" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B304" s="24">
         <v>80</v>
       </c>
       <c r="C304" s="25"/>
       <c r="D304" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="E304" s="23" t="s">
         <v>589</v>
-      </c>
-      <c r="E304" s="23" t="s">
-        <v>590</v>
       </c>
       <c r="F304" s="28" t="s">
         <v>32</v>
@@ -12310,12 +12367,12 @@
         <v>1770</v>
       </c>
       <c r="K304" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="305" spans="1:11" ht="13">
       <c r="A305" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B305" s="24">
         <v>81</v>
@@ -12326,21 +12383,21 @@
       </c>
       <c r="E305" s="26"/>
       <c r="F305" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G305" s="30">
         <v>1780</v>
       </c>
       <c r="I305" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="K305" s="37" t="s">
         <v>592</v>
-      </c>
-      <c r="K305" s="37" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="306" spans="1:11" ht="13">
       <c r="A306" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B306" s="24">
         <v>82</v>
@@ -12357,18 +12414,18 @@
         <v>1770</v>
       </c>
       <c r="I306" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="J306" s="28" t="s">
         <v>594</v>
       </c>
-      <c r="J306" s="28" t="s">
+      <c r="K306" s="28" t="s">
         <v>595</v>
-      </c>
-      <c r="K306" s="28" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="307" spans="1:11" ht="13">
       <c r="A307" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B307" s="24">
         <v>83</v>
@@ -12385,25 +12442,25 @@
         <v>1770</v>
       </c>
       <c r="I307" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="J307" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="K307" s="28" t="s">
         <v>597</v>
-      </c>
-      <c r="J307" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="K307" s="28" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="13">
       <c r="A308" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B308" s="24">
         <v>84</v>
       </c>
       <c r="C308" s="25"/>
       <c r="D308" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E308" s="26"/>
       <c r="F308" s="28" t="s">
@@ -12413,19 +12470,19 @@
         <v>1730</v>
       </c>
       <c r="K308" s="28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="309" spans="1:11" ht="13">
       <c r="A309" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B309" s="24">
         <v>85</v>
       </c>
       <c r="C309" s="25"/>
       <c r="D309" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E309" s="26"/>
       <c r="F309" s="28" t="s">
@@ -12435,12 +12492,12 @@
         <v>1730</v>
       </c>
       <c r="K309" s="28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="310" spans="1:11" ht="13">
       <c r="A310" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B310" s="24">
         <v>86</v>
@@ -12457,15 +12514,15 @@
         <v>1780</v>
       </c>
       <c r="I310" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="K310" s="28" t="s">
         <v>602</v>
-      </c>
-      <c r="K310" s="28" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="311" spans="1:11" ht="13">
       <c r="A311" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B311" s="24">
         <v>87</v>
@@ -12474,7 +12531,7 @@
         <v>274</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E311" s="26"/>
       <c r="F311" s="28" t="s">
@@ -12484,12 +12541,12 @@
         <v>1790</v>
       </c>
       <c r="K311" s="28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="312" spans="1:11" ht="13">
       <c r="A312" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B312" s="24">
         <v>88</v>
@@ -12502,24 +12559,24 @@
       </c>
       <c r="E312" s="26"/>
       <c r="F312" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G312" s="30">
         <v>1790</v>
       </c>
       <c r="I312" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="J312" s="28" t="s">
         <v>605</v>
       </c>
-      <c r="J312" s="28" t="s">
+      <c r="K312" s="38" t="s">
         <v>606</v>
-      </c>
-      <c r="K312" s="38" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="313" spans="1:11" ht="13">
       <c r="A313" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B313" s="24">
         <v>89</v>
@@ -12528,7 +12585,7 @@
         <v>236</v>
       </c>
       <c r="D313" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E313" s="26"/>
       <c r="F313" s="28" t="s">
@@ -12538,15 +12595,15 @@
         <v>1790</v>
       </c>
       <c r="J313" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="K313" s="28" t="s">
         <v>608</v>
-      </c>
-      <c r="K313" s="28" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="314" spans="1:11" ht="13">
       <c r="A314" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B314" s="24">
         <v>90</v>
@@ -12555,32 +12612,32 @@
         <v>236</v>
       </c>
       <c r="D314" s="23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E314" s="26"/>
       <c r="F314" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G314" s="30">
         <v>1790</v>
       </c>
       <c r="J314" s="28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K314" s="38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="315" spans="1:11" ht="13">
       <c r="A315" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B315" s="24">
         <v>91</v>
       </c>
       <c r="C315" s="25"/>
       <c r="D315" s="23" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E315" s="26"/>
       <c r="F315" s="28" t="s">
@@ -12593,19 +12650,19 @@
         <v>5122</v>
       </c>
       <c r="K315" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="316" spans="1:11" ht="13">
       <c r="A316" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B316" s="24">
         <v>92</v>
       </c>
       <c r="C316" s="25"/>
       <c r="D316" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E316" s="26"/>
       <c r="F316" s="28" t="s">
@@ -12615,19 +12672,19 @@
         <v>1800</v>
       </c>
       <c r="K316" s="28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="317" spans="1:11" ht="13">
       <c r="A317" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B317" s="24">
         <v>93</v>
       </c>
       <c r="C317" s="25"/>
       <c r="D317" s="23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E317" s="26"/>
       <c r="F317" s="28" t="s">
@@ -12640,19 +12697,19 @@
         <v>5122</v>
       </c>
       <c r="K317" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="318" spans="1:11" ht="13">
       <c r="A318" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B318" s="24">
         <v>94</v>
       </c>
       <c r="C318" s="25"/>
       <c r="D318" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E318" s="26"/>
       <c r="F318" s="28" t="s">
@@ -12662,19 +12719,19 @@
         <v>1770</v>
       </c>
       <c r="K318" s="28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="13">
       <c r="A319" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B319" s="24">
         <v>95</v>
       </c>
       <c r="C319" s="25"/>
       <c r="D319" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E319" s="26"/>
       <c r="F319" s="28" t="s">
@@ -12684,19 +12741,19 @@
         <v>1770</v>
       </c>
       <c r="K319" s="28" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="320" spans="1:11" ht="13">
       <c r="A320" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B320" s="24">
         <v>96</v>
       </c>
       <c r="C320" s="25"/>
       <c r="D320" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E320" s="26"/>
       <c r="F320" s="28" t="s">
@@ -12706,19 +12763,19 @@
         <v>1800</v>
       </c>
       <c r="K320" s="28" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="13">
       <c r="A321" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B321" s="24">
         <v>97</v>
       </c>
       <c r="C321" s="25"/>
       <c r="D321" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E321" s="26"/>
       <c r="F321" s="28" t="s">
@@ -12728,19 +12785,19 @@
         <v>1810</v>
       </c>
       <c r="K321" s="28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="13">
       <c r="A322" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B322" s="24">
         <v>98</v>
       </c>
       <c r="C322" s="25"/>
       <c r="D322" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E322" s="26"/>
       <c r="F322" s="28" t="s">
@@ -12750,49 +12807,52 @@
         <v>1780</v>
       </c>
       <c r="K322" s="28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="323" spans="1:11" ht="13">
       <c r="A323" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B323" s="24">
         <v>99</v>
       </c>
       <c r="C323" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D323" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E323" s="26"/>
       <c r="F323" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G323" s="30">
         <v>1810</v>
       </c>
+      <c r="H323" s="42" t="s">
+        <v>997</v>
+      </c>
       <c r="I323" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="J323" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="J323" s="28" t="s">
+      <c r="K323" s="38" t="s">
         <v>626</v>
-      </c>
-      <c r="K323" s="38" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="324" spans="1:11" ht="13">
       <c r="A324" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B324" s="24">
         <v>100</v>
       </c>
       <c r="C324" s="25"/>
       <c r="D324" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E324" s="26"/>
       <c r="F324" s="28" t="s">
@@ -12802,19 +12862,19 @@
         <v>1760</v>
       </c>
       <c r="K324" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="325" spans="1:11" ht="13">
       <c r="A325" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B325" s="24">
         <v>101</v>
       </c>
       <c r="C325" s="25"/>
       <c r="D325" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E325" s="26"/>
       <c r="F325" s="28" t="s">
@@ -12824,12 +12884,12 @@
         <v>1770</v>
       </c>
       <c r="K325" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="326" spans="1:11" ht="13">
       <c r="A326" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B326" s="24">
         <v>102</v>
@@ -12838,7 +12898,7 @@
         <v>36</v>
       </c>
       <c r="D326" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E326" s="26"/>
       <c r="F326" s="28" t="s">
@@ -12848,22 +12908,22 @@
         <v>1800</v>
       </c>
       <c r="J326" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="K326" s="28" t="s">
         <v>631</v>
-      </c>
-      <c r="K326" s="28" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="13">
       <c r="A327" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B327" s="24">
         <v>103</v>
       </c>
       <c r="C327" s="25"/>
       <c r="D327" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E327" s="26"/>
       <c r="F327" s="28" t="s">
@@ -12873,72 +12933,72 @@
         <v>1790</v>
       </c>
       <c r="K327" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="328" spans="1:11" ht="13">
       <c r="A328" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B328" s="24">
         <v>104</v>
       </c>
       <c r="C328" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="D328" s="23" t="s">
         <v>634</v>
-      </c>
-      <c r="D328" s="23" t="s">
-        <v>635</v>
       </c>
       <c r="E328" s="26"/>
       <c r="F328" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G328" s="30">
         <v>1810</v>
       </c>
       <c r="H328" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="J328" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="K328" s="37" t="s">
         <v>636</v>
-      </c>
-      <c r="K328" s="37" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="13">
       <c r="A329" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B329" s="24">
         <v>105</v>
       </c>
       <c r="C329" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D329" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E329" s="26"/>
       <c r="F329" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G329" s="30">
         <v>1800</v>
       </c>
       <c r="I329" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="J329" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="K329" s="37" t="s">
         <v>638</v>
-      </c>
-      <c r="J329" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="K329" s="37" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="330" spans="1:11" ht="13">
       <c r="A330" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B330" s="24">
         <v>106</v>
@@ -12949,21 +13009,21 @@
       </c>
       <c r="E330" s="26"/>
       <c r="F330" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G330" s="30">
         <v>1780</v>
       </c>
       <c r="I330" s="28" t="s">
+        <v>639</v>
+      </c>
+      <c r="K330" s="37" t="s">
         <v>640</v>
-      </c>
-      <c r="K330" s="37" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="331" spans="1:11" ht="13">
       <c r="A331" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B331" s="24">
         <v>107</v>
@@ -12972,229 +13032,229 @@
         <v>36</v>
       </c>
       <c r="D331" s="23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E331" s="26"/>
       <c r="F331" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G331" s="30">
         <v>1790</v>
       </c>
       <c r="J331" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="K331" s="28" t="s">
         <v>643</v>
-      </c>
-      <c r="K331" s="28" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="332" spans="1:11" ht="13">
       <c r="A332" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B332" s="24">
         <v>108</v>
       </c>
       <c r="C332" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="D332" s="23" t="s">
         <v>645</v>
-      </c>
-      <c r="D332" s="23" t="s">
-        <v>646</v>
       </c>
       <c r="E332" s="26"/>
       <c r="F332" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G332" s="30">
         <v>1790</v>
       </c>
       <c r="J332" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K332" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="333" spans="1:11" ht="13">
       <c r="A333" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B333" s="24">
         <v>109</v>
       </c>
       <c r="C333" s="29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D333" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E333" s="26"/>
       <c r="F333" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G333" s="30">
         <v>1780</v>
       </c>
       <c r="I333" s="28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J333" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K333" s="37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="334" spans="1:11" ht="13">
       <c r="A334" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B334" s="24">
         <v>110</v>
       </c>
       <c r="C334" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D334" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E334" s="26"/>
       <c r="F334" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G334" s="30">
         <v>1780</v>
       </c>
       <c r="I334" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="J334" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="J334" s="36" t="s">
+      <c r="K334" s="37" t="s">
         <v>651</v>
-      </c>
-      <c r="K334" s="37" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="335" spans="1:11" ht="13">
       <c r="A335" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B335" s="24">
         <v>111</v>
       </c>
       <c r="C335" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D335" s="23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E335" s="26"/>
       <c r="F335" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G335" s="30">
         <v>1790</v>
       </c>
       <c r="J335" s="36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K335" s="37" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="336" spans="1:11" ht="13">
       <c r="A336" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B336" s="24">
         <v>112</v>
       </c>
       <c r="C336" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D336" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E336" s="26"/>
       <c r="F336" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G336" s="30">
         <v>1790</v>
       </c>
       <c r="I336" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="J336" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="J336" s="36" t="s">
-        <v>651</v>
-      </c>
       <c r="K336" s="37" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="337" spans="1:11" ht="13">
       <c r="A337" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B337" s="24">
         <v>113</v>
       </c>
       <c r="C337" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="D337" s="23" t="s">
         <v>649</v>
-      </c>
-      <c r="D337" s="23" t="s">
-        <v>650</v>
       </c>
       <c r="E337" s="26"/>
       <c r="F337" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G337" s="30">
         <v>1800</v>
       </c>
       <c r="J337" s="36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K337" s="37" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="338" spans="1:11" ht="13">
       <c r="A338" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B338" s="24">
         <v>114</v>
       </c>
       <c r="C338" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="D338" s="23" t="s">
         <v>657</v>
-      </c>
-      <c r="D338" s="23" t="s">
-        <v>658</v>
       </c>
       <c r="E338" s="26"/>
       <c r="F338" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G338" s="30">
         <v>1790</v>
       </c>
       <c r="J338" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="K338" s="37" t="s">
         <v>659</v>
-      </c>
-      <c r="K338" s="37" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="339" spans="1:11" ht="13">
       <c r="A339" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B339" s="24">
         <v>115</v>
       </c>
       <c r="C339" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D339" s="23" t="s">
         <v>20</v>
@@ -13207,24 +13267,24 @@
         <v>1770</v>
       </c>
       <c r="I339" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="J339" s="37" t="s">
         <v>662</v>
       </c>
-      <c r="J339" s="37" t="s">
+      <c r="K339" s="37" t="s">
         <v>663</v>
-      </c>
-      <c r="K339" s="37" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="340" spans="1:11" ht="13">
       <c r="A340" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B340" s="24">
         <v>116</v>
       </c>
       <c r="C340" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D340" s="23" t="s">
         <v>20</v>
@@ -13237,25 +13297,25 @@
         <v>1780</v>
       </c>
       <c r="I340" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="J340" s="37" t="s">
         <v>662</v>
       </c>
-      <c r="J340" s="37" t="s">
-        <v>663</v>
-      </c>
       <c r="K340" s="37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="341" spans="1:11" ht="13">
       <c r="A341" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B341" s="24">
         <v>117</v>
       </c>
       <c r="C341" s="25"/>
       <c r="D341" s="23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E341" s="26"/>
       <c r="F341" s="28" t="s">
@@ -13265,15 +13325,15 @@
         <v>1830</v>
       </c>
       <c r="H341" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="K341" s="37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="342" spans="1:11" ht="13">
       <c r="A342" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B342" s="24">
         <v>118</v>
@@ -13282,7 +13342,7 @@
         <v>36</v>
       </c>
       <c r="D342" s="23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E342" s="26"/>
       <c r="F342" s="28" t="s">
@@ -13292,24 +13352,24 @@
         <v>1840</v>
       </c>
       <c r="H342" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="K342" s="37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="343" spans="1:11" ht="13">
       <c r="A343" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B343" s="24">
         <v>119</v>
       </c>
       <c r="C343" s="29" t="s">
+        <v>667</v>
+      </c>
+      <c r="D343" s="23" t="s">
         <v>668</v>
-      </c>
-      <c r="D343" s="23" t="s">
-        <v>669</v>
       </c>
       <c r="E343" s="26"/>
       <c r="F343" s="28" t="s">
@@ -13319,19 +13379,19 @@
         <v>1790</v>
       </c>
       <c r="K343" s="37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="344" spans="1:11" ht="13">
       <c r="A344" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B344" s="24">
         <v>120</v>
       </c>
       <c r="C344" s="25"/>
       <c r="D344" s="23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E344" s="26"/>
       <c r="F344" s="28" t="s">
@@ -13341,19 +13401,19 @@
         <v>1790</v>
       </c>
       <c r="K344" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="345" spans="1:11" ht="13">
       <c r="A345" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B345" s="24">
         <v>121</v>
       </c>
       <c r="C345" s="25"/>
       <c r="D345" s="23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E345" s="26"/>
       <c r="F345" s="28" t="s">
@@ -13363,19 +13423,19 @@
         <v>1740</v>
       </c>
       <c r="K345" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="346" spans="1:11" ht="13">
       <c r="A346" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B346" s="24">
         <v>122</v>
       </c>
       <c r="C346" s="25"/>
       <c r="D346" s="23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E346" s="26"/>
       <c r="F346" s="28" t="s">
@@ -13385,19 +13445,19 @@
         <v>1730</v>
       </c>
       <c r="K346" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="347" spans="1:11" ht="13">
       <c r="A347" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B347" s="24">
         <v>123</v>
       </c>
       <c r="C347" s="25"/>
       <c r="D347" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E347" s="26"/>
       <c r="F347" s="28" t="s">
@@ -13407,19 +13467,19 @@
         <v>1790</v>
       </c>
       <c r="K347" s="37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="348" spans="1:11" ht="13">
       <c r="A348" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B348" s="24">
         <v>124</v>
       </c>
       <c r="C348" s="25"/>
       <c r="D348" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E348" s="26"/>
       <c r="F348" s="28" t="s">
@@ -13429,19 +13489,19 @@
         <v>1800</v>
       </c>
       <c r="K348" s="37" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="349" spans="1:11" ht="13">
       <c r="A349" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B349" s="24">
         <v>125</v>
       </c>
       <c r="C349" s="25"/>
       <c r="D349" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E349" s="26"/>
       <c r="F349" s="28" t="s">
@@ -13451,19 +13511,19 @@
         <v>1710</v>
       </c>
       <c r="K349" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="350" spans="1:11" ht="13">
       <c r="A350" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B350" s="24">
         <v>126</v>
       </c>
       <c r="C350" s="25"/>
       <c r="D350" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E350" s="26"/>
       <c r="F350" s="28" t="s">
@@ -13473,19 +13533,19 @@
         <v>1720</v>
       </c>
       <c r="K350" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="351" spans="1:11" ht="13">
       <c r="A351" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B351" s="24">
         <v>127</v>
       </c>
       <c r="C351" s="25"/>
       <c r="D351" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E351" s="26"/>
       <c r="F351" s="28" t="s">
@@ -13495,19 +13555,19 @@
         <v>1840</v>
       </c>
       <c r="K351" s="37" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="352" spans="1:11" ht="13">
       <c r="A352" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B352" s="24">
         <v>128</v>
       </c>
       <c r="C352" s="25"/>
       <c r="D352" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E352" s="26"/>
       <c r="F352" s="28" t="s">
@@ -13517,12 +13577,12 @@
         <v>1850</v>
       </c>
       <c r="K352" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="353" spans="1:11" ht="13">
       <c r="A353" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B353" s="24">
         <v>129</v>
@@ -13539,22 +13599,22 @@
         <v>1790</v>
       </c>
       <c r="I353" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="K353" s="28" t="s">
         <v>684</v>
-      </c>
-      <c r="K353" s="28" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="354" spans="1:11" ht="13">
       <c r="A354" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B354" s="24">
         <v>130</v>
       </c>
       <c r="C354" s="25"/>
       <c r="D354" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E354" s="26"/>
       <c r="F354" s="37" t="s">
@@ -13564,12 +13624,12 @@
         <v>1840</v>
       </c>
       <c r="K354" s="28" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="355" spans="1:11" ht="13">
       <c r="A355" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B355" s="24">
         <v>131</v>
@@ -13586,15 +13646,15 @@
         <v>1850</v>
       </c>
       <c r="I355" s="28" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K355" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="356" spans="1:11" ht="13">
       <c r="A356" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B356" s="24">
         <v>132</v>
@@ -13613,27 +13673,27 @@
         <v>1720</v>
       </c>
       <c r="I356" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="J356" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="J356" s="37" t="s">
+      <c r="K356" s="37" t="s">
         <v>690</v>
-      </c>
-      <c r="K356" s="37" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="357" spans="1:11" ht="13">
       <c r="A357" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B357" s="24">
         <v>133</v>
       </c>
       <c r="C357" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="D357" s="23" t="s">
         <v>692</v>
-      </c>
-      <c r="D357" s="23" t="s">
-        <v>693</v>
       </c>
       <c r="E357" s="26"/>
       <c r="F357" s="37" t="s">
@@ -13643,34 +13703,34 @@
         <v>1810</v>
       </c>
       <c r="H357" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="K357" s="37" t="s">
         <v>694</v>
-      </c>
-      <c r="K357" s="37" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="358" spans="1:11" ht="13">
       <c r="A358" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B358" s="24">
         <v>134</v>
       </c>
       <c r="C358" s="25"/>
       <c r="D358" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E358" s="26"/>
       <c r="G358" s="30">
         <v>1790</v>
       </c>
       <c r="K358" s="28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="359" spans="1:11" ht="13">
       <c r="A359" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B359" s="24">
         <v>1</v>
@@ -13687,18 +13747,18 @@
         <v>1800</v>
       </c>
       <c r="H359" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I359" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="K359" s="37" t="s">
         <v>698</v>
-      </c>
-      <c r="K359" s="37" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="360" spans="1:11" ht="13">
       <c r="A360" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B360" s="24">
         <v>2</v>
@@ -13715,15 +13775,15 @@
         <v>1800</v>
       </c>
       <c r="I360" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="K360" s="28" t="s">
         <v>700</v>
-      </c>
-      <c r="K360" s="28" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="361" spans="1:11" ht="13">
       <c r="A361" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B361" s="24">
         <v>3</v>
@@ -13740,21 +13800,21 @@
         <v>1800</v>
       </c>
       <c r="K361" s="37" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="362" spans="1:11" ht="13">
       <c r="A362" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B362" s="24">
         <v>4</v>
       </c>
       <c r="C362" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="D362" s="23" t="s">
         <v>703</v>
-      </c>
-      <c r="D362" s="23" t="s">
-        <v>704</v>
       </c>
       <c r="E362" s="26"/>
       <c r="F362" s="28" t="s">
@@ -13764,15 +13824,15 @@
         <v>1800</v>
       </c>
       <c r="J362" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="K362" s="28" t="s">
         <v>705</v>
-      </c>
-      <c r="K362" s="28" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="13">
       <c r="A363" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B363" s="24">
         <v>5</v>
@@ -13791,18 +13851,18 @@
         <v>1800</v>
       </c>
       <c r="I363" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J363" s="28" t="s">
         <v>132</v>
       </c>
       <c r="K363" s="28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="364" spans="1:11" ht="13">
       <c r="A364" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B364" s="24">
         <v>6</v>
@@ -13819,12 +13879,12 @@
         <v>1800</v>
       </c>
       <c r="K364" s="37" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="365" spans="1:11" ht="13">
       <c r="A365" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B365" s="24">
         <v>7</v>
@@ -13841,12 +13901,12 @@
         <v>1800</v>
       </c>
       <c r="K365" s="28" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="366" spans="1:11" ht="13">
       <c r="A366" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B366" s="24">
         <v>8</v>
@@ -13865,18 +13925,18 @@
         <v>1800</v>
       </c>
       <c r="I366" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="J366" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="J366" s="37" t="s">
+      <c r="K366" s="28" t="s">
         <v>712</v>
-      </c>
-      <c r="K366" s="28" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="367" spans="1:11" ht="13">
       <c r="A367" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B367" s="24">
         <v>9</v>
@@ -13895,27 +13955,27 @@
         <v>1800</v>
       </c>
       <c r="I367" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="J367" s="37" t="s">
         <v>714</v>
       </c>
-      <c r="J367" s="37" t="s">
+      <c r="K367" s="28" t="s">
         <v>715</v>
-      </c>
-      <c r="K367" s="28" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="368" spans="1:11" ht="13">
       <c r="A368" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B368" s="24">
         <v>10</v>
       </c>
       <c r="C368" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="D368" s="23" t="s">
         <v>717</v>
-      </c>
-      <c r="D368" s="23" t="s">
-        <v>718</v>
       </c>
       <c r="E368" s="26"/>
       <c r="F368" s="28" t="s">
@@ -13925,15 +13985,15 @@
         <v>1800</v>
       </c>
       <c r="J368" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="K368" s="28" t="s">
         <v>719</v>
-      </c>
-      <c r="K368" s="28" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="369" spans="1:11" ht="13">
       <c r="A369" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B369" s="24">
         <v>11</v>
@@ -13950,12 +14010,12 @@
         <v>1800</v>
       </c>
       <c r="K369" s="37" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="370" spans="1:11" ht="13">
       <c r="A370" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B370" s="24">
         <v>12</v>
@@ -13964,7 +14024,7 @@
         <v>71</v>
       </c>
       <c r="D370" s="23" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E370" s="26"/>
       <c r="F370" s="28" t="s">
@@ -13974,15 +14034,15 @@
         <v>1800</v>
       </c>
       <c r="J370" s="37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K370" s="37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="371" spans="1:11" ht="13">
       <c r="A371" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B371" s="24">
         <v>13</v>
@@ -14001,18 +14061,18 @@
         <v>1800</v>
       </c>
       <c r="K371" s="37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="372" spans="1:11" ht="13">
       <c r="A372" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B372" s="24">
         <v>14</v>
       </c>
       <c r="C372" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D372" s="23" t="s">
         <v>20</v>
@@ -14025,27 +14085,27 @@
         <v>1800</v>
       </c>
       <c r="I372" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="J372" s="37" t="s">
         <v>724</v>
       </c>
-      <c r="J372" s="37" t="s">
+      <c r="K372" s="37" t="s">
         <v>725</v>
-      </c>
-      <c r="K372" s="37" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="373" spans="1:11" ht="13">
       <c r="A373" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B373" s="24">
         <v>15</v>
       </c>
       <c r="C373" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D373" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E373" s="26"/>
       <c r="F373" s="37" t="s">
@@ -14055,22 +14115,22 @@
         <v>1800</v>
       </c>
       <c r="J373" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K373" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="374" spans="1:11" ht="13">
       <c r="A374" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B374" s="24">
         <v>16</v>
       </c>
       <c r="C374" s="25"/>
       <c r="D374" s="23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E374" s="26"/>
       <c r="F374" s="28" t="s">
@@ -14080,12 +14140,12 @@
         <v>1800</v>
       </c>
       <c r="K374" s="37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="375" spans="1:11" ht="13">
       <c r="A375" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B375" s="24">
         <v>17</v>
@@ -14107,7 +14167,7 @@
     </row>
     <row r="376" spans="1:11" ht="13">
       <c r="A376" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B376" s="24">
         <v>18</v>
@@ -14124,15 +14184,15 @@
         <v>1800</v>
       </c>
       <c r="I376" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="K376" s="37" t="s">
         <v>730</v>
-      </c>
-      <c r="K376" s="37" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="377" spans="1:11" ht="13">
       <c r="A377" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B377" s="24">
         <v>19</v>
@@ -14141,7 +14201,7 @@
         <v>66</v>
       </c>
       <c r="D377" s="23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E377" s="26"/>
       <c r="F377" s="28" t="s">
@@ -14151,7 +14211,7 @@
         <v>1800</v>
       </c>
       <c r="J377" s="28" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K377" s="28" t="s">
         <v>41</v>
@@ -14159,16 +14219,16 @@
     </row>
     <row r="378" spans="1:11" ht="13">
       <c r="A378" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B378" s="24">
         <v>20</v>
       </c>
       <c r="C378" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D378" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E378" s="26"/>
       <c r="F378" s="28" t="s">
@@ -14178,22 +14238,22 @@
         <v>1800</v>
       </c>
       <c r="J378" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="K378" s="28" t="s">
         <v>735</v>
-      </c>
-      <c r="K378" s="28" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="379" spans="1:11" ht="13">
       <c r="A379" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B379" s="24">
         <v>21</v>
       </c>
       <c r="C379" s="25"/>
-      <c r="D379" s="23" t="s">
-        <v>311</v>
+      <c r="D379" s="4" t="s">
+        <v>996</v>
       </c>
       <c r="E379" s="26"/>
       <c r="F379" s="28" t="s">
@@ -14202,20 +14262,23 @@
       <c r="G379" s="30">
         <v>1800</v>
       </c>
+      <c r="I379" s="4" t="s">
+        <v>996</v>
+      </c>
       <c r="K379" s="28" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="380" spans="1:11" ht="13">
       <c r="A380" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B380" s="24">
         <v>22</v>
       </c>
       <c r="C380" s="25"/>
       <c r="D380" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E380" s="26"/>
       <c r="F380" s="28" t="s">
@@ -14225,12 +14288,12 @@
         <v>1800</v>
       </c>
       <c r="K380" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="381" spans="1:11" ht="13">
       <c r="A381" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B381" s="24">
         <v>23</v>
@@ -14249,24 +14312,24 @@
         <v>1800</v>
       </c>
       <c r="I381" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="K381" s="37" t="s">
         <v>738</v>
-      </c>
-      <c r="K381" s="37" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="382" spans="1:11" ht="13">
       <c r="A382" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B382" s="24">
         <v>24</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D382" s="23" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E382" s="26"/>
       <c r="F382" s="28" t="s">
@@ -14276,24 +14339,24 @@
         <v>1800</v>
       </c>
       <c r="J382" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="K382" s="28" t="s">
         <v>741</v>
-      </c>
-      <c r="K382" s="28" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="383" spans="1:11" ht="13">
       <c r="A383" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B383" s="24">
         <v>25</v>
       </c>
       <c r="C383" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D383" s="23" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E383" s="26"/>
       <c r="F383" s="28" t="s">
@@ -14303,22 +14366,22 @@
         <v>1810</v>
       </c>
       <c r="J383" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="K383" s="28" t="s">
         <v>743</v>
-      </c>
-      <c r="K383" s="28" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="384" spans="1:11" ht="13">
       <c r="A384" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B384" s="24">
         <v>26</v>
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E384" s="26"/>
       <c r="F384" s="28" t="s">
@@ -14328,18 +14391,18 @@
         <v>1800</v>
       </c>
       <c r="K384" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="385" spans="1:11" ht="13">
       <c r="A385" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B385" s="24">
         <v>27</v>
       </c>
       <c r="C385" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D385" s="23" t="s">
         <v>20</v>
@@ -14352,10 +14415,10 @@
         <v>1800</v>
       </c>
       <c r="I385" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J385" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K385" s="37" t="s">
         <v>41</v>
@@ -14363,14 +14426,14 @@
     </row>
     <row r="386" spans="1:11" ht="13">
       <c r="A386" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B386" s="24">
         <v>28</v>
       </c>
       <c r="C386" s="25"/>
       <c r="D386" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E386" s="26"/>
       <c r="F386" s="28" t="s">
@@ -14380,19 +14443,19 @@
         <v>1800</v>
       </c>
       <c r="K386" s="28" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="387" spans="1:11" ht="13">
       <c r="A387" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B387" s="24">
         <v>29</v>
       </c>
       <c r="C387" s="25"/>
       <c r="D387" s="23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E387" s="26"/>
       <c r="F387" s="28" t="s">
@@ -14402,12 +14465,12 @@
         <v>1800</v>
       </c>
       <c r="K387" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="388" spans="1:11" ht="13">
       <c r="A388" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B388" s="24">
         <v>30</v>
@@ -14424,24 +14487,24 @@
         <v>1800</v>
       </c>
       <c r="I388" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="K388" s="28" t="s">
         <v>750</v>
-      </c>
-      <c r="K388" s="28" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="389" spans="1:11" ht="13">
       <c r="A389" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B389" s="24">
         <v>31</v>
       </c>
       <c r="C389" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="D389" s="23" t="s">
         <v>752</v>
-      </c>
-      <c r="D389" s="23" t="s">
-        <v>753</v>
       </c>
       <c r="E389" s="26"/>
       <c r="F389" s="28" t="s">
@@ -14451,15 +14514,15 @@
         <v>1810</v>
       </c>
       <c r="J389" s="37" t="s">
+        <v>753</v>
+      </c>
+      <c r="K389" s="37" t="s">
         <v>754</v>
-      </c>
-      <c r="K389" s="37" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="390" spans="1:11" ht="13">
       <c r="A390" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B390" s="24">
         <v>32</v>
@@ -14476,22 +14539,22 @@
         <v>1800</v>
       </c>
       <c r="I390" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="K390" s="37" t="s">
         <v>756</v>
-      </c>
-      <c r="K390" s="37" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="391" spans="1:11" ht="13">
       <c r="A391" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B391" s="24">
         <v>33</v>
       </c>
       <c r="C391" s="25"/>
       <c r="D391" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E391" s="26"/>
       <c r="F391" s="28" t="s">
@@ -14506,7 +14569,7 @@
     </row>
     <row r="392" spans="1:11" ht="13">
       <c r="A392" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B392" s="24">
         <v>34</v>
@@ -14523,22 +14586,22 @@
         <v>1800</v>
       </c>
       <c r="I392" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="K392" s="28" t="s">
         <v>758</v>
-      </c>
-      <c r="K392" s="28" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="393" spans="1:11" ht="13">
       <c r="A393" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B393" s="24">
         <v>35</v>
       </c>
       <c r="C393" s="25"/>
       <c r="D393" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E393" s="26"/>
       <c r="F393" s="28" t="s">
@@ -14548,19 +14611,19 @@
         <v>1800</v>
       </c>
       <c r="K393" s="37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="394" spans="1:11" ht="13">
       <c r="A394" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B394" s="24">
         <v>36</v>
       </c>
       <c r="C394" s="25"/>
       <c r="D394" s="23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E394" s="26"/>
       <c r="F394" s="28" t="s">
@@ -14570,19 +14633,19 @@
         <v>1800</v>
       </c>
       <c r="K394" s="37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="395" spans="1:11" ht="13">
       <c r="A395" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B395" s="24">
         <v>37</v>
       </c>
       <c r="C395" s="25"/>
       <c r="D395" s="23" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E395" s="26"/>
       <c r="F395" s="28" t="s">
@@ -14592,12 +14655,12 @@
         <v>1800</v>
       </c>
       <c r="K395" s="37" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="396" spans="1:11" ht="13">
       <c r="A396" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B396" s="24">
         <v>38</v>
@@ -14614,15 +14677,15 @@
         <v>1800</v>
       </c>
       <c r="I396" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="K396" s="28" t="s">
         <v>765</v>
-      </c>
-      <c r="K396" s="28" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="397" spans="1:11" ht="13">
       <c r="A397" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B397" s="24">
         <v>39</v>
@@ -14639,22 +14702,22 @@
         <v>1800</v>
       </c>
       <c r="I397" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="K397" s="28" t="s">
         <v>767</v>
-      </c>
-      <c r="K397" s="28" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="398" spans="1:11" ht="13">
       <c r="A398" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B398" s="24">
         <v>40</v>
       </c>
       <c r="C398" s="25"/>
       <c r="D398" s="23" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E398" s="26"/>
       <c r="F398" s="28" t="s">
@@ -14664,19 +14727,19 @@
         <v>1800</v>
       </c>
       <c r="K398" s="37" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="399" spans="1:11" ht="13">
       <c r="A399" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B399" s="24">
         <v>41</v>
       </c>
       <c r="C399" s="25"/>
       <c r="D399" s="23" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E399" s="26"/>
       <c r="F399" s="28" t="s">
@@ -14686,12 +14749,12 @@
         <v>1800</v>
       </c>
       <c r="K399" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="400" spans="1:11" ht="13">
       <c r="A400" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B400" s="24">
         <v>42</v>
@@ -14702,31 +14765,31 @@
       </c>
       <c r="E400" s="26"/>
       <c r="F400" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G400" s="30">
         <v>1800</v>
       </c>
       <c r="I400" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="J400" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="J400" s="28" t="s">
-        <v>547</v>
-      </c>
       <c r="K400" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="401" spans="1:11" ht="13">
       <c r="A401" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B401" s="24">
         <v>43</v>
       </c>
       <c r="C401" s="25"/>
       <c r="D401" s="23" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E401" s="26"/>
       <c r="F401" s="28" t="s">
@@ -14736,19 +14799,19 @@
         <v>1800</v>
       </c>
       <c r="K401" s="28" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="402" spans="1:11" ht="13">
       <c r="A402" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B402" s="24">
         <v>44</v>
       </c>
       <c r="C402" s="25"/>
       <c r="D402" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E402" s="26"/>
       <c r="F402" s="28" t="s">
@@ -14758,21 +14821,21 @@
         <v>1800</v>
       </c>
       <c r="K402" s="28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="403" spans="1:11" ht="13">
       <c r="A403" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B403" s="24">
         <v>45</v>
       </c>
       <c r="C403" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D403" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E403" s="26"/>
       <c r="F403" s="28" t="s">
@@ -14782,21 +14845,21 @@
         <v>1800</v>
       </c>
       <c r="K403" s="28" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="404" spans="1:11" ht="13">
       <c r="A404" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B404" s="24">
         <v>46</v>
       </c>
       <c r="C404" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D404" s="23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E404" s="26"/>
       <c r="F404" s="28" t="s">
@@ -14806,22 +14869,22 @@
         <v>1800</v>
       </c>
       <c r="J404" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="K404" s="28" t="s">
         <v>779</v>
-      </c>
-      <c r="K404" s="28" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="405" spans="1:11" ht="13">
       <c r="A405" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B405" s="24">
         <v>47</v>
       </c>
       <c r="C405" s="25"/>
       <c r="D405" s="23" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E405" s="26"/>
       <c r="F405" s="28" t="s">
@@ -14831,19 +14894,19 @@
         <v>1800</v>
       </c>
       <c r="K405" s="28" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="406" spans="1:11" ht="13">
       <c r="A406" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B406" s="24">
         <v>48</v>
       </c>
       <c r="C406" s="25"/>
       <c r="D406" s="23" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E406" s="26"/>
       <c r="F406" s="28" t="s">
@@ -14853,19 +14916,19 @@
         <v>1800</v>
       </c>
       <c r="K406" s="28" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="407" spans="1:11" ht="13">
       <c r="A407" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B407" s="24">
         <v>49</v>
       </c>
       <c r="C407" s="25"/>
       <c r="D407" s="23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E407" s="26"/>
       <c r="F407" s="28" t="s">
@@ -14875,19 +14938,19 @@
         <v>1800</v>
       </c>
       <c r="K407" s="28" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="408" spans="1:11" ht="13">
       <c r="A408" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B408" s="24">
         <v>50</v>
       </c>
       <c r="C408" s="25"/>
       <c r="D408" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E408" s="26"/>
       <c r="F408" s="28" t="s">
@@ -14897,47 +14960,47 @@
         <v>1800</v>
       </c>
       <c r="K408" s="28" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="409" spans="1:11" ht="13">
       <c r="A409" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B409" s="24">
         <v>51</v>
       </c>
       <c r="C409" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="D409" s="23" t="s">
         <v>634</v>
-      </c>
-      <c r="D409" s="23" t="s">
-        <v>635</v>
       </c>
       <c r="E409" s="26"/>
       <c r="F409" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G409" s="30">
         <v>1800</v>
       </c>
       <c r="H409" s="28"/>
       <c r="J409" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K409" s="28" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="410" spans="1:11" ht="13">
       <c r="A410" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B410" s="24">
         <v>52</v>
       </c>
       <c r="C410" s="25"/>
       <c r="D410" s="23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E410" s="26"/>
       <c r="F410" s="28" t="s">
@@ -14947,19 +15010,19 @@
         <v>1800</v>
       </c>
       <c r="K410" s="28" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="411" spans="1:11" ht="13">
       <c r="A411" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B411" s="24">
         <v>53</v>
       </c>
       <c r="C411" s="25"/>
       <c r="D411" s="23" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E411" s="26"/>
       <c r="F411" s="28" t="s">
@@ -14969,15 +15032,15 @@
         <v>1800</v>
       </c>
       <c r="J411" s="28" t="s">
+        <v>790</v>
+      </c>
+      <c r="K411" s="28" t="s">
         <v>791</v>
-      </c>
-      <c r="K411" s="28" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="412" spans="1:11" ht="13">
       <c r="A412" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B412" s="24">
         <v>54</v>
@@ -14990,27 +15053,27 @@
       </c>
       <c r="E412" s="26"/>
       <c r="F412" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G412" s="30">
         <v>1800</v>
       </c>
       <c r="H412" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I412" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="J412" s="36" t="s">
         <v>630</v>
       </c>
-      <c r="J412" s="36" t="s">
-        <v>631</v>
-      </c>
       <c r="K412" s="37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="413" spans="1:11" ht="13">
       <c r="A413" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B413" s="24">
         <v>55</v>
@@ -15021,31 +15084,34 @@
       </c>
       <c r="E413" s="26"/>
       <c r="F413" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G413" s="30">
         <v>1800</v>
       </c>
-      <c r="I413" s="28" t="s">
-        <v>794</v>
+      <c r="H413" s="42" t="s">
+        <v>997</v>
+      </c>
+      <c r="I413" s="6" t="s">
+        <v>998</v>
       </c>
       <c r="J413" s="28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K413" s="38" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="414" spans="1:11" ht="13">
       <c r="A414" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B414" s="24">
         <v>56</v>
       </c>
       <c r="C414" s="25"/>
       <c r="D414" s="23" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E414" s="26"/>
       <c r="F414" s="28" t="s">
@@ -15055,19 +15121,19 @@
         <v>1800</v>
       </c>
       <c r="K414" s="28" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="415" spans="1:11" ht="13">
       <c r="A415" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B415" s="24">
         <v>57</v>
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="23" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E415" s="26"/>
       <c r="F415" s="28" t="s">
@@ -15077,12 +15143,12 @@
         <v>1800</v>
       </c>
       <c r="K415" s="28" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="416" spans="1:11" ht="13">
       <c r="A416" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B416" s="24">
         <v>58</v>
@@ -15095,21 +15161,21 @@
       </c>
       <c r="E416" s="26"/>
       <c r="F416" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G416" s="30">
         <v>1800</v>
       </c>
       <c r="I416" s="28" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="K416" s="28" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="417" spans="1:11" ht="13">
       <c r="A417" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B417" s="24">
         <v>59</v>
@@ -15120,7 +15186,7 @@
       </c>
       <c r="E417" s="26"/>
       <c r="F417" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G417" s="30">
         <v>1800</v>
@@ -15129,25 +15195,25 @@
         <v>5673</v>
       </c>
       <c r="I417" s="28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J417" s="36" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="K417" s="37" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="418" spans="1:11" ht="13">
       <c r="A418" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B418" s="24">
         <v>60</v>
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="23" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E418" s="26"/>
       <c r="F418" s="28" t="s">
@@ -15157,19 +15223,19 @@
         <v>1800</v>
       </c>
       <c r="K418" s="28" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="419" spans="1:11" ht="13">
       <c r="A419" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B419" s="24">
         <v>61</v>
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="23" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E419" s="26"/>
       <c r="F419" s="28" t="s">
@@ -15182,19 +15248,19 @@
         <v>6121</v>
       </c>
       <c r="K419" s="28" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="420" spans="1:11" ht="13">
       <c r="A420" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B420" s="24">
         <v>62</v>
       </c>
       <c r="C420" s="25"/>
       <c r="D420" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E420" s="26"/>
       <c r="F420" s="28" t="s">
@@ -15207,14 +15273,14 @@
     </row>
     <row r="421" spans="1:11" ht="13">
       <c r="A421" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B421" s="24">
         <v>63</v>
       </c>
       <c r="C421" s="25"/>
       <c r="D421" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E421" s="26"/>
       <c r="F421" s="28" t="s">
@@ -15229,14 +15295,14 @@
     </row>
     <row r="422" spans="1:11" ht="13">
       <c r="A422" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B422" s="24">
         <v>64</v>
       </c>
       <c r="C422" s="25"/>
       <c r="D422" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E422" s="26"/>
       <c r="F422" s="39" t="s">
@@ -15246,12 +15312,12 @@
         <v>1800</v>
       </c>
       <c r="K422" s="37" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="423" spans="1:11" ht="13">
       <c r="A423" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B423" s="24">
         <v>65</v>
@@ -15262,24 +15328,24 @@
       </c>
       <c r="E423" s="26"/>
       <c r="F423" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G423" s="30">
         <v>1810</v>
       </c>
       <c r="I423" s="28" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="J423" s="28" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K423" s="28" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="424" spans="1:11" ht="13">
       <c r="A424" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B424" s="24">
         <v>66</v>
@@ -15296,25 +15362,25 @@
         <v>1800</v>
       </c>
       <c r="I424" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="J424" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="K424" s="28" t="s">
         <v>811</v>
-      </c>
-      <c r="J424" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="K424" s="28" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="425" spans="1:11" ht="13">
       <c r="A425" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B425" s="24">
         <v>67</v>
       </c>
       <c r="C425" s="25"/>
       <c r="D425" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E425" s="26"/>
       <c r="F425" s="39" t="s">
@@ -15324,18 +15390,18 @@
         <v>1810</v>
       </c>
       <c r="I425" s="28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="J425" s="28" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K425" s="28" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="426" spans="1:11" ht="13">
       <c r="A426" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B426" s="24">
         <v>68</v>
@@ -15346,31 +15412,31 @@
       </c>
       <c r="E426" s="26"/>
       <c r="F426" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G426" s="30">
         <v>1810</v>
       </c>
       <c r="H426" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="I426" s="28" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K426" s="28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="427" spans="1:11" ht="13">
       <c r="A427" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B427" s="24">
         <v>70</v>
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="23" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E427" s="26"/>
       <c r="F427" s="28" t="s">
@@ -15380,12 +15446,12 @@
         <v>1820</v>
       </c>
       <c r="K427" s="28" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="428" spans="1:11" ht="13">
       <c r="A428" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B428" s="24">
         <v>72</v>
@@ -15396,30 +15462,30 @@
       </c>
       <c r="E428" s="26"/>
       <c r="F428" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G428" s="30">
         <v>1810</v>
       </c>
       <c r="I428" s="28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K428" s="28" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="429" spans="1:11" ht="13">
       <c r="A429" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B429" s="24">
         <v>73</v>
       </c>
       <c r="C429" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D429" s="23" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E429" s="26"/>
       <c r="F429" s="28" t="s">
@@ -15429,22 +15495,22 @@
         <v>1810</v>
       </c>
       <c r="J429" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K429" s="28" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="430" spans="1:11" ht="13">
       <c r="A430" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B430" s="24">
         <v>74</v>
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="23" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E430" s="26"/>
       <c r="F430" s="28" t="s">
@@ -15454,19 +15520,19 @@
         <v>1810</v>
       </c>
       <c r="K430" s="28" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="431" spans="1:11" ht="13">
       <c r="A431" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B431" s="24">
         <v>75</v>
       </c>
       <c r="C431" s="25"/>
       <c r="D431" s="23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E431" s="26"/>
       <c r="F431" s="28" t="s">
@@ -15476,19 +15542,19 @@
         <v>1810</v>
       </c>
       <c r="K431" s="28" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="432" spans="1:11" ht="13">
       <c r="A432" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B432" s="24">
         <v>76</v>
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="23" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E432" s="26"/>
       <c r="F432" s="28" t="s">
@@ -15498,19 +15564,19 @@
         <v>1810</v>
       </c>
       <c r="K432" s="28" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="433" spans="1:11" ht="13">
       <c r="A433" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B433" s="24">
         <v>77</v>
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="23" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E433" s="26"/>
       <c r="F433" s="28" t="s">
@@ -15520,15 +15586,15 @@
         <v>1810</v>
       </c>
       <c r="J433" s="28" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="K433" s="28" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="434" spans="1:11" ht="13">
       <c r="A434" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B434" s="24">
         <v>78</v>
@@ -15539,7 +15605,7 @@
       </c>
       <c r="E434" s="26"/>
       <c r="F434" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G434" s="30">
         <v>1800</v>
@@ -15548,19 +15614,19 @@
         <v>218</v>
       </c>
       <c r="K434" s="37" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="435" spans="1:11" ht="13">
       <c r="A435" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B435" s="24">
         <v>79</v>
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="23" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E435" s="26"/>
       <c r="F435" s="28" t="s">
@@ -15570,19 +15636,19 @@
         <v>1810</v>
       </c>
       <c r="K435" s="28" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="436" spans="1:11" ht="13">
       <c r="A436" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B436" s="24">
         <v>80</v>
       </c>
       <c r="C436" s="25"/>
       <c r="D436" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E436" s="26"/>
       <c r="F436" s="28" t="s">
@@ -15592,19 +15658,19 @@
         <v>1810</v>
       </c>
       <c r="K436" s="28" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="437" spans="1:11" ht="13">
       <c r="A437" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B437" s="24">
         <v>81</v>
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="23" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E437" s="26"/>
       <c r="F437" s="28" t="s">
@@ -15614,19 +15680,19 @@
         <v>1810</v>
       </c>
       <c r="K437" s="28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="438" spans="1:11" ht="13">
       <c r="A438" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B438" s="24">
         <v>82</v>
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="23" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E438" s="26"/>
       <c r="F438" s="28" t="s">
@@ -15636,19 +15702,19 @@
         <v>1810</v>
       </c>
       <c r="K438" s="28" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="439" spans="1:11" ht="13">
       <c r="A439" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B439" s="24">
         <v>83</v>
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="23" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E439" s="26"/>
       <c r="F439" s="28" t="s">
@@ -15658,15 +15724,15 @@
         <v>1810</v>
       </c>
       <c r="H439" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="K439" s="28" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="440" spans="1:11" ht="13">
       <c r="A440" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B440" s="24">
         <v>84</v>
@@ -15683,12 +15749,12 @@
         <v>1810</v>
       </c>
       <c r="K440" s="28" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="441" spans="1:11" ht="13">
       <c r="A441" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B441" s="24">
         <v>85</v>
@@ -15699,28 +15765,28 @@
       </c>
       <c r="E441" s="26"/>
       <c r="F441" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G441" s="30">
         <v>1810</v>
       </c>
       <c r="I441" s="28" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="K441" s="37" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="442" spans="1:11" ht="13">
       <c r="A442" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B442" s="24">
         <v>86</v>
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="23" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E442" s="26"/>
       <c r="F442" s="28" t="s">
@@ -15730,18 +15796,18 @@
         <v>1810</v>
       </c>
       <c r="K442" s="28" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="443" spans="1:11" ht="13">
       <c r="A443" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B443" s="24">
         <v>87</v>
       </c>
       <c r="C443" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D443" s="23" t="s">
         <v>20</v>
@@ -15754,21 +15820,21 @@
         <v>1810</v>
       </c>
       <c r="I443" s="28" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K443" s="28" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="444" spans="1:11" ht="13">
       <c r="A444" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B444" s="24">
         <v>88</v>
       </c>
       <c r="C444" s="29" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D444" s="23" t="s">
         <v>20</v>
@@ -15781,7 +15847,7 @@
         <v>1810</v>
       </c>
       <c r="H444" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="I444" s="28" t="s">
         <v>27</v>
@@ -15790,12 +15856,12 @@
         <v>25</v>
       </c>
       <c r="K444" s="28" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="445" spans="1:11" ht="13">
       <c r="A445" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B445" s="24">
         <v>89</v>
@@ -15814,28 +15880,28 @@
         <v>1810</v>
       </c>
       <c r="I445" s="28" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J445" s="28" t="s">
         <v>157</v>
       </c>
       <c r="K445" s="28" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="446" spans="1:11" ht="13">
       <c r="A446" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B446" s="24">
         <v>90</v>
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="23" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E446" s="23" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F446" s="28" t="s">
         <v>21</v>
@@ -15847,19 +15913,19 @@
         <v>17</v>
       </c>
       <c r="K446" s="28" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="447" spans="1:11" ht="13">
       <c r="A447" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B447" s="24">
         <v>91</v>
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E447" s="26"/>
       <c r="F447" s="28" t="s">
@@ -15872,12 +15938,12 @@
         <v>17</v>
       </c>
       <c r="K447" s="28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="448" spans="1:11" ht="13">
       <c r="A448" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B448" s="24">
         <v>92</v>
@@ -15894,15 +15960,15 @@
         <v>1810</v>
       </c>
       <c r="I448" s="28" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="K448" s="28" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="449" spans="1:11" ht="13">
       <c r="A449" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B449" s="24">
         <v>93</v>
@@ -15919,22 +15985,22 @@
         <v>1810</v>
       </c>
       <c r="K449" s="28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="450" spans="1:11" ht="13">
       <c r="A450" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B450" s="24">
         <v>94</v>
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E450" s="23" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F450" s="28" t="s">
         <v>21</v>
@@ -15943,21 +16009,21 @@
         <v>1810</v>
       </c>
       <c r="K450" s="28" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="451" spans="1:11" ht="13">
       <c r="A451" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B451" s="24">
         <v>95</v>
       </c>
       <c r="C451" s="29" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D451" s="23" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E451" s="26"/>
       <c r="F451" s="28" t="s">
@@ -15967,19 +16033,19 @@
         <v>1810</v>
       </c>
       <c r="K451" s="28" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="452" spans="1:11" ht="13">
       <c r="A452" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B452" s="24">
         <v>96</v>
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="23" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E452" s="26"/>
       <c r="F452" s="28" t="s">
@@ -15989,19 +16055,19 @@
         <v>1810</v>
       </c>
       <c r="K452" s="28" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="453" spans="1:11" ht="13">
       <c r="A453" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B453" s="24">
         <v>97</v>
       </c>
       <c r="C453" s="25"/>
-      <c r="D453" s="23" t="s">
-        <v>867</v>
+      <c r="D453" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E453" s="26"/>
       <c r="F453" s="28" t="s">
@@ -16010,19 +16076,25 @@
       <c r="G453" s="30">
         <v>1810</v>
       </c>
+      <c r="H453" s="42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I453" s="4" t="s">
+        <v>999</v>
+      </c>
       <c r="K453" s="28" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="454" spans="1:11" ht="13">
       <c r="A454" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B454" s="24">
         <v>98</v>
       </c>
       <c r="C454" s="29" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D454" s="23" t="s">
         <v>20</v>
@@ -16038,15 +16110,15 @@
         <v>1052</v>
       </c>
       <c r="I454" s="28" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="K454" s="28" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="455" spans="1:11" ht="13">
       <c r="A455" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B455" s="24">
         <v>99</v>
@@ -16063,18 +16135,18 @@
         <v>1810</v>
       </c>
       <c r="I455" s="28" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="J455" s="28" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="K455" s="28" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="456" spans="1:11" ht="13">
       <c r="A456" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B456" s="24">
         <v>100</v>
@@ -16091,15 +16163,15 @@
         <v>1810</v>
       </c>
       <c r="I456" s="28" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="K456" s="28" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="457" spans="1:11" ht="13">
       <c r="A457" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B457" s="24">
         <v>101</v>
@@ -16108,7 +16180,7 @@
         <v>36</v>
       </c>
       <c r="D457" s="23" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E457" s="26"/>
       <c r="F457" s="28" t="s">
@@ -16118,12 +16190,12 @@
         <v>1810</v>
       </c>
       <c r="K457" s="28" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="458" spans="1:11" ht="13">
       <c r="A458" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B458" s="24">
         <v>102</v>
@@ -16132,7 +16204,7 @@
         <v>71</v>
       </c>
       <c r="D458" s="23" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E458" s="26"/>
       <c r="F458" s="28" t="s">
@@ -16142,12 +16214,12 @@
         <v>1810</v>
       </c>
       <c r="K458" s="28" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="459" spans="1:11" ht="13">
       <c r="A459" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B459" s="24">
         <v>103</v>
@@ -16166,15 +16238,15 @@
         <v>1810</v>
       </c>
       <c r="I459" s="28" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="K459" s="28" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="460" spans="1:11" ht="13">
       <c r="A460" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B460" s="24">
         <v>104</v>
@@ -16196,18 +16268,18 @@
         <v>257</v>
       </c>
       <c r="K460" s="28" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="461" spans="1:11" ht="13">
       <c r="A461" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B461" s="24">
         <v>105</v>
       </c>
       <c r="C461" s="29" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D461" s="23" t="s">
         <v>20</v>
@@ -16220,15 +16292,15 @@
         <v>1810</v>
       </c>
       <c r="I461" s="28" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="K461" s="28" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="462" spans="1:11" ht="13">
       <c r="A462" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B462" s="24">
         <v>106</v>
@@ -16237,7 +16309,7 @@
         <v>23</v>
       </c>
       <c r="D462" s="23" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E462" s="26"/>
       <c r="F462" s="28" t="s">
@@ -16247,21 +16319,21 @@
         <v>1810</v>
       </c>
       <c r="K462" s="28" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="463" spans="1:11" ht="13">
       <c r="A463" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B463" s="24">
         <v>107</v>
       </c>
       <c r="C463" s="29" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D463" s="23" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E463" s="26"/>
       <c r="F463" s="28" t="s">
@@ -16274,12 +16346,12 @@
         <v>1771</v>
       </c>
       <c r="K463" s="28" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="464" spans="1:11" ht="13">
       <c r="A464" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B464" s="24">
         <v>108</v>
@@ -16296,15 +16368,15 @@
         <v>1810</v>
       </c>
       <c r="I464" s="28" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K464" s="28" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="465" spans="1:11" ht="13">
       <c r="A465" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B465" s="24">
         <v>109</v>
@@ -16323,15 +16395,15 @@
         <v>1810</v>
       </c>
       <c r="I465" s="28" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="K465" s="28" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="466" spans="1:11" ht="13">
       <c r="A466" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B466" s="24">
         <v>110</v>
@@ -16350,18 +16422,18 @@
         <v>1770</v>
       </c>
       <c r="I466" s="28" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="J466" s="28" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="K466" s="28" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="467" spans="1:11" ht="13">
       <c r="A467" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B467" s="24">
         <v>111</v>
@@ -16380,18 +16452,18 @@
         <v>1760</v>
       </c>
       <c r="I467" s="28" t="s">
+        <v>891</v>
+      </c>
+      <c r="J467" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="K467" s="28" t="s">
         <v>894</v>
-      </c>
-      <c r="J467" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="K467" s="28" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="468" spans="1:11" ht="13">
       <c r="A468" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B468" s="24">
         <v>112</v>
@@ -16410,18 +16482,18 @@
         <v>1750</v>
       </c>
       <c r="I468" s="28" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="J468" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="K468" s="28" t="s">
         <v>895</v>
-      </c>
-      <c r="K468" s="28" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="469" spans="1:11" ht="13">
       <c r="A469" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B469" s="24">
         <v>113</v>
@@ -16438,12 +16510,12 @@
         <v>1810</v>
       </c>
       <c r="K469" s="28" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="470" spans="1:11" ht="13">
       <c r="A470" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B470" s="24">
         <v>114</v>
@@ -16454,7 +16526,7 @@
       </c>
       <c r="E470" s="26"/>
       <c r="F470" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G470" s="30">
         <v>1810</v>
@@ -16463,19 +16535,19 @@
         <v>291</v>
       </c>
       <c r="K470" s="37" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="471" spans="1:11" ht="14">
       <c r="A471" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B471" s="24">
         <v>115</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="23" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E471" s="26"/>
       <c r="F471" s="28" t="s">
@@ -16485,18 +16557,18 @@
         <v>1810</v>
       </c>
       <c r="H471" s="42" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="J471" s="40" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="K471" s="28" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="472" spans="1:11" ht="13">
       <c r="A472" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B472" s="24">
         <v>116</v>
@@ -16509,16 +16581,16 @@
       </c>
       <c r="E472" s="26"/>
       <c r="F472" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G472" s="30">
         <v>1810</v>
       </c>
       <c r="I472" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="J472" s="28" t="s">
         <v>732</v>
-      </c>
-      <c r="J472" s="28" t="s">
-        <v>733</v>
       </c>
       <c r="K472" s="37" t="s">
         <v>41</v>
@@ -16526,16 +16598,16 @@
     </row>
     <row r="473" spans="1:11" ht="13">
       <c r="A473" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B473" s="24">
         <v>117</v>
       </c>
       <c r="C473" s="29" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D473" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E473" s="26"/>
       <c r="F473" s="28" t="s">
@@ -16545,22 +16617,22 @@
         <v>1810</v>
       </c>
       <c r="J473" s="28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K473" s="28" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="474" spans="1:11" ht="13">
       <c r="A474" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B474" s="24">
         <v>118</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E474" s="26"/>
       <c r="F474" s="28" t="s">
@@ -16570,19 +16642,19 @@
         <v>1810</v>
       </c>
       <c r="K474" s="28" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="475" spans="1:11" ht="13">
       <c r="A475" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B475" s="24">
         <v>119</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E475" s="26"/>
       <c r="F475" s="28" t="s">
@@ -16592,12 +16664,12 @@
         <v>1810</v>
       </c>
       <c r="K475" s="28" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="476" spans="1:11" ht="13">
       <c r="A476" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B476" s="24">
         <v>120</v>
@@ -16608,30 +16680,30 @@
       </c>
       <c r="E476" s="26"/>
       <c r="F476" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G476" s="30">
         <v>1810</v>
       </c>
       <c r="I476" s="28" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="K476" s="37" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="477" spans="1:11" ht="13">
       <c r="A477" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B477" s="24">
         <v>121</v>
       </c>
       <c r="C477" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D477" s="23" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E477" s="26"/>
       <c r="F477" s="28" t="s">
@@ -16644,15 +16716,15 @@
         <v>2675</v>
       </c>
       <c r="J477" s="28" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K477" s="28" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="478" spans="1:11" ht="13">
       <c r="A478" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B478" s="24">
         <v>122</v>
@@ -16661,7 +16733,7 @@
         <v>36</v>
       </c>
       <c r="D478" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E478" s="26"/>
       <c r="F478" s="28" t="s">
@@ -16671,12 +16743,12 @@
         <v>1810</v>
       </c>
       <c r="K478" s="28" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="479" spans="1:11" ht="13">
       <c r="A479" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B479" s="24">
         <v>123</v>
@@ -16687,21 +16759,21 @@
       </c>
       <c r="E479" s="26"/>
       <c r="F479" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G479" s="30">
         <v>1810</v>
       </c>
       <c r="I479" s="28" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="K479" s="37" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="480" spans="1:11" ht="13">
       <c r="A480" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B480" s="24">
         <v>124</v>
@@ -16710,7 +16782,7 @@
         <v>36</v>
       </c>
       <c r="D480" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E480" s="26"/>
       <c r="F480" s="28" t="s">
@@ -16720,19 +16792,19 @@
         <v>1800</v>
       </c>
       <c r="K480" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="481" spans="1:11" ht="13">
       <c r="A481" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B481" s="24">
         <v>125</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="23" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E481" s="26"/>
       <c r="F481" s="28" t="s">
@@ -16742,21 +16814,21 @@
         <v>1800</v>
       </c>
       <c r="K481" s="28" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="482" spans="1:11" ht="13">
       <c r="A482" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B482" s="24">
         <v>126</v>
       </c>
       <c r="C482" s="29" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D482" s="23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E482" s="26"/>
       <c r="F482" s="28" t="s">
@@ -16766,24 +16838,24 @@
         <v>1810</v>
       </c>
       <c r="J482" s="28" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="K482" s="28" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="483" spans="1:11" ht="13">
       <c r="A483" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B483" s="24">
         <v>127</v>
       </c>
       <c r="C483" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D483" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E483" s="26"/>
       <c r="F483" s="28" t="s">
@@ -16793,55 +16865,55 @@
         <v>1810</v>
       </c>
       <c r="K483" s="28" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="484" spans="1:11" ht="13">
       <c r="A484" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B484" s="24">
         <v>128</v>
       </c>
       <c r="C484" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D484" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E484" s="26"/>
       <c r="F484" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G484" s="30">
         <v>1810</v>
       </c>
       <c r="I484" s="28" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="J484" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K484" s="28" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="485" spans="1:11" ht="13">
       <c r="A485" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B485" s="24">
         <v>129</v>
       </c>
       <c r="C485" s="29" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D485" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E485" s="26"/>
       <c r="F485" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G485" s="30">
         <v>1810</v>
@@ -16850,18 +16922,18 @@
         <v>5004</v>
       </c>
       <c r="I485" s="28" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="J485" s="36" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="K485" s="37" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="486" spans="1:11" ht="13">
       <c r="A486" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B486" s="24">
         <v>130</v>
@@ -16872,21 +16944,21 @@
       </c>
       <c r="E486" s="26"/>
       <c r="F486" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G486" s="30">
         <v>1810</v>
       </c>
       <c r="I486" s="28" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="K486" s="37" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="487" spans="1:11" ht="13">
       <c r="A487" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B487" s="24">
         <v>131</v>
@@ -16895,7 +16967,7 @@
         <v>50</v>
       </c>
       <c r="D487" s="23" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E487" s="26"/>
       <c r="F487" s="28" t="s">
@@ -16905,22 +16977,22 @@
         <v>1810</v>
       </c>
       <c r="J487" s="28" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="K487" s="28" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="488" spans="1:11" ht="13">
       <c r="A488" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B488" s="24">
         <v>132</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E488" s="26"/>
       <c r="F488" s="28" t="s">
@@ -16930,21 +17002,21 @@
         <v>1810</v>
       </c>
       <c r="K488" s="28" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="489" spans="1:11" ht="13">
       <c r="A489" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B489" s="24">
         <v>133</v>
       </c>
       <c r="C489" s="29" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D489" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E489" s="26"/>
       <c r="F489" s="28" t="s">
@@ -16954,24 +17026,24 @@
         <v>1810</v>
       </c>
       <c r="J489" s="28" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="K489" s="28" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="490" spans="1:11" ht="13">
       <c r="A490" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B490" s="24">
         <v>134</v>
       </c>
       <c r="C490" s="29" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D490" s="23" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E490" s="26"/>
       <c r="F490" s="39" t="s">
@@ -16981,21 +17053,21 @@
         <v>1810</v>
       </c>
       <c r="K490" s="37" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="491" spans="1:11" ht="13">
       <c r="A491" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B491" s="24">
         <v>135</v>
       </c>
       <c r="C491" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D491" s="23" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E491" s="26"/>
       <c r="F491" s="37" t="s">
@@ -17005,15 +17077,15 @@
         <v>1810</v>
       </c>
       <c r="J491" s="37" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="K491" s="37" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="492" spans="1:11" ht="13">
       <c r="A492" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B492" s="24">
         <v>136</v>
@@ -17026,21 +17098,21 @@
       </c>
       <c r="E492" s="26"/>
       <c r="F492" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G492" s="30">
         <v>1810</v>
       </c>
       <c r="I492" s="28" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="K492" s="37" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="493" spans="1:11" ht="13">
       <c r="A493" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B493" s="24">
         <v>139</v>
@@ -17051,49 +17123,49 @@
       </c>
       <c r="E493" s="26"/>
       <c r="F493" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G493" s="30">
         <v>1810</v>
       </c>
       <c r="H493" s="28" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I493" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="J493" s="36" t="s">
         <v>630</v>
       </c>
-      <c r="J493" s="36" t="s">
-        <v>631</v>
-      </c>
       <c r="K493" s="37" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="494" spans="1:11" ht="13">
       <c r="A494" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B494" s="24">
         <v>140</v>
       </c>
       <c r="C494" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D494" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E494" s="26"/>
       <c r="F494" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G494" s="30">
         <v>1810</v>
       </c>
       <c r="I494" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J494" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K494" s="37" t="s">
         <v>41</v>
@@ -17101,34 +17173,34 @@
     </row>
     <row r="495" spans="1:11" ht="13">
       <c r="A495" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B495" s="24">
         <v>141</v>
       </c>
       <c r="C495" s="29" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D495" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E495" s="26"/>
       <c r="F495" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G495" s="30">
         <v>1810</v>
       </c>
       <c r="I495" s="28" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="K495" s="37" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="496" spans="1:11" ht="13">
       <c r="A496" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B496" s="24">
         <v>142</v>
@@ -17139,7 +17211,7 @@
       </c>
       <c r="E496" s="26"/>
       <c r="F496" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G496" s="30">
         <v>1810</v>
@@ -17148,18 +17220,18 @@
         <v>5385</v>
       </c>
       <c r="I496" s="28" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J496" s="28" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K496" s="37" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="497" spans="1:11" ht="13">
       <c r="A497" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B497" s="24">
         <v>143</v>
@@ -17172,43 +17244,43 @@
       </c>
       <c r="E497" s="26"/>
       <c r="F497" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G497" s="30">
         <v>1810</v>
       </c>
       <c r="I497" s="28" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J497" s="36" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K497" s="28" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="498" spans="1:11" ht="13">
       <c r="A498" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B498" s="24">
         <v>144</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="23" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E498" s="26"/>
       <c r="G498" s="30">
         <v>1810</v>
       </c>
       <c r="K498" s="37" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="499" spans="1:11" ht="13">
       <c r="A499" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B499" s="24">
         <v>145</v>
@@ -17219,7 +17291,7 @@
       </c>
       <c r="E499" s="26"/>
       <c r="F499" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G499" s="30">
         <v>1810</v>
@@ -17228,37 +17300,37 @@
         <v>5504</v>
       </c>
       <c r="I499" s="28" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="J499" s="36" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="K499" s="37" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="500" spans="1:11" ht="13">
       <c r="A500" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B500" s="24">
         <v>146</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="23" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E500" s="26"/>
       <c r="G500" s="30">
         <v>1810</v>
       </c>
       <c r="K500" s="37" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="501" spans="1:11" ht="13">
       <c r="A501" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B501" s="24">
         <v>147</v>
@@ -17269,7 +17341,7 @@
       </c>
       <c r="E501" s="26"/>
       <c r="F501" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G501" s="30">
         <v>1810</v>
@@ -17278,24 +17350,24 @@
         <v>5505</v>
       </c>
       <c r="I501" s="28" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="J501" s="36" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="K501" s="37" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="502" spans="1:11" ht="13">
       <c r="A502" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B502" s="24">
         <v>148</v>
       </c>
       <c r="C502" s="29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D502" s="23" t="s">
         <v>20</v>
@@ -17308,36 +17380,36 @@
         <v>1810</v>
       </c>
       <c r="I502" s="28" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="K502" s="37" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="503" spans="1:11" ht="13">
       <c r="A503" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B503" s="24">
         <v>149</v>
       </c>
       <c r="C503" s="29" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D503" s="23" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E503" s="26"/>
       <c r="G503" s="30">
         <v>1810</v>
       </c>
       <c r="K503" s="37" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="504" spans="1:11" ht="13">
       <c r="A504" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B504" s="24">
         <v>150</v>
@@ -17346,118 +17418,118 @@
         <v>36</v>
       </c>
       <c r="D504" s="23" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E504" s="26"/>
       <c r="G504" s="30">
         <v>1810</v>
       </c>
       <c r="K504" s="37" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="505" spans="1:11" ht="13">
       <c r="A505" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B505" s="24">
         <v>151</v>
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="23" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E505" s="26"/>
       <c r="G505" s="30">
         <v>1810</v>
       </c>
       <c r="K505" s="37" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="506" spans="1:11" ht="13">
       <c r="A506" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B506" s="24">
         <v>152</v>
       </c>
       <c r="C506" s="29" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D506" s="23" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E506" s="26"/>
       <c r="G506" s="30">
         <v>1810</v>
       </c>
       <c r="K506" s="37" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="507" spans="1:11" ht="13">
       <c r="A507" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B507" s="24">
         <v>153</v>
       </c>
       <c r="C507" s="25"/>
       <c r="D507" s="23" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E507" s="26"/>
       <c r="G507" s="30">
         <v>1810</v>
       </c>
       <c r="K507" s="37" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="508" spans="1:11" ht="13">
       <c r="A508" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B508" s="24">
         <v>154</v>
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="23" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E508" s="26"/>
       <c r="G508" s="30">
         <v>1810</v>
       </c>
       <c r="K508" s="37" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="509" spans="1:11" ht="13">
       <c r="A509" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B509" s="24">
         <v>155</v>
       </c>
       <c r="C509" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D509" s="23" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E509" s="26"/>
       <c r="G509" s="30">
         <v>1810</v>
       </c>
       <c r="K509" s="28" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="510" spans="1:11" ht="13">
       <c r="A510" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B510" s="24">
         <v>156</v>
@@ -17468,34 +17540,34 @@
       </c>
       <c r="E510" s="26"/>
       <c r="F510" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G510" s="30">
         <v>1810</v>
       </c>
       <c r="H510" s="28" t="s">
+        <v>974</v>
+      </c>
+      <c r="I510" s="28" t="s">
+        <v>975</v>
+      </c>
+      <c r="J510" s="28" t="s">
+        <v>976</v>
+      </c>
+      <c r="K510" s="37" t="s">
         <v>977</v>
-      </c>
-      <c r="I510" s="28" t="s">
-        <v>978</v>
-      </c>
-      <c r="J510" s="28" t="s">
-        <v>979</v>
-      </c>
-      <c r="K510" s="37" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="511" spans="1:11" ht="13">
       <c r="A511" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B511" s="24">
         <v>157</v>
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="23" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E511" s="26"/>
       <c r="G511" s="30">
@@ -17505,12 +17577,12 @@
         <v>5818</v>
       </c>
       <c r="K511" s="37" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="512" spans="1:11" ht="13">
       <c r="A512" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B512" s="24">
         <v>158</v>
@@ -17521,7 +17593,7 @@
       </c>
       <c r="E512" s="26"/>
       <c r="F512" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G512" s="30">
         <v>1810</v>
@@ -17530,62 +17602,62 @@
         <v>5828</v>
       </c>
       <c r="I512" s="28" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="K512" s="37" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="513" spans="1:11" ht="13">
       <c r="A513" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B513" s="24">
         <v>159</v>
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="23" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E513" s="26"/>
       <c r="G513" s="30">
         <v>1810</v>
       </c>
       <c r="K513" s="37" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="514" spans="1:11" ht="13">
       <c r="A514" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B514" s="24">
         <v>160</v>
       </c>
       <c r="C514" s="29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D514" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E514" s="26"/>
       <c r="F514" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G514" s="30">
         <v>1790</v>
       </c>
       <c r="H514" s="28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I514" s="28" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="J514" s="28" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="K514" s="37" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="515" spans="1:11" ht="13">
@@ -21526,23 +21598,53 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I98 I206:I207 D1:D1006">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G1006">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="8">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98 I206:I207 D7:D1006">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(D7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C1006">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="10">
       <formula>LEN(TRIM(C7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I379">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Disagreement">
+      <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I379))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I379">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(I379))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I156">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Disagreement">
+      <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I156))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I156">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
+      <formula>LEN(TRIM(I156))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I453">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Disagreement">
+      <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I453))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I453">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(I453))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/LOCATION SHEETS/1677sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1677sLOCATIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD55660-272D-4348-B15F-B4649F4666AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48EFD5D-A266-0C40-A893-2F745054A453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="1052">
   <si>
     <t>LOCATIONS FOR MIXTURE OF DECADES</t>
   </si>
@@ -4091,6 +4091,9 @@
   </si>
   <si>
     <t>RR500</t>
+  </si>
+  <si>
+    <t>RR501</t>
   </si>
 </sst>
 </file>
@@ -4334,7 +4337,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4842,9 +4877,9 @@
   </sheetPr>
   <dimension ref="A1:K1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I224" sqref="I224"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I226" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -6840,6 +6875,9 @@
       <c r="G76" s="30">
         <v>1780</v>
       </c>
+      <c r="H76" t="s">
+        <v>1051</v>
+      </c>
       <c r="J76" s="28" t="s">
         <v>161</v>
       </c>
@@ -6867,6 +6905,9 @@
       <c r="G77" s="30">
         <v>1790</v>
       </c>
+      <c r="H77" t="s">
+        <v>1051</v>
+      </c>
       <c r="J77" s="28" t="s">
         <v>161</v>
       </c>
@@ -7086,6 +7127,9 @@
       <c r="G84" s="30">
         <v>1730</v>
       </c>
+      <c r="H84" s="42" t="s">
+        <v>1018</v>
+      </c>
       <c r="J84" s="28" t="s">
         <v>175</v>
       </c>
@@ -7113,6 +7157,9 @@
       <c r="G85" s="30">
         <v>1730</v>
       </c>
+      <c r="H85" s="42" t="s">
+        <v>1018</v>
+      </c>
       <c r="J85" s="28" t="s">
         <v>175</v>
       </c>
@@ -9110,6 +9157,7 @@
       <c r="H161" t="s">
         <v>1048</v>
       </c>
+      <c r="I161" s="23"/>
       <c r="J161" s="28" t="s">
         <v>315</v>
       </c>
@@ -9125,8 +9173,8 @@
         <v>160</v>
       </c>
       <c r="C162" s="25"/>
-      <c r="D162" s="23" t="s">
-        <v>307</v>
+      <c r="D162" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E162" s="26"/>
       <c r="F162" s="28" t="s">
@@ -9135,8 +9183,8 @@
       <c r="G162" s="30">
         <v>1810</v>
       </c>
-      <c r="H162" t="s">
-        <v>1048</v>
+      <c r="I162" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="J162" s="28" t="s">
         <v>308</v>
@@ -22382,123 +22430,143 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="I98 I206:I207 D1:D1006">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(D1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G1006">
-    <cfRule type="containsBlanks" dxfId="22" priority="22">
+    <cfRule type="containsBlanks" dxfId="26" priority="26">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98 I206:I207 D7:D1006">
-    <cfRule type="containsBlanks" dxfId="21" priority="23">
+    <cfRule type="containsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(D7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C1006">
-    <cfRule type="containsBlanks" dxfId="20" priority="24">
+    <cfRule type="containsBlanks" dxfId="24" priority="28">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I379">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I379))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I379">
-    <cfRule type="containsBlanks" dxfId="18" priority="20">
+    <cfRule type="containsBlanks" dxfId="22" priority="24">
       <formula>LEN(TRIM(I379))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I156))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I156">
-    <cfRule type="containsBlanks" dxfId="16" priority="18">
+    <cfRule type="containsBlanks" dxfId="20" priority="22">
       <formula>LEN(TRIM(I156))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I453">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I453))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I453">
-    <cfRule type="containsBlanks" dxfId="14" priority="16">
+    <cfRule type="containsBlanks" dxfId="18" priority="20">
       <formula>LEN(TRIM(I453))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I293">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I293))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I293">
-    <cfRule type="containsBlanks" dxfId="12" priority="14">
+    <cfRule type="containsBlanks" dxfId="16" priority="18">
       <formula>LEN(TRIM(I293))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I292">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I292))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I292">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="14" priority="16">
       <formula>LEN(TRIM(I292))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I294">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I294))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I294">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
+    <cfRule type="containsBlanks" dxfId="12" priority="14">
       <formula>LEN(TRIM(I294))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I295">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I295))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I295">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(I295))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I350">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I350))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I350">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(I350))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I349">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I349))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I349">
-    <cfRule type="containsBlanks" dxfId="2" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(I349))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I475">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Disagreement">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Disagreement">
       <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I475))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I475">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
+      <formula>LEN(TRIM(I475))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I161">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Disagreement">
+      <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I161))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I161">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
+      <formula>LEN(TRIM(I161))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I162">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Disagreement">
+      <formula>NOT(ISERROR(SEARCH(("Disagreement"),(I162))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I162">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(I475))=0</formula>
+      <formula>LEN(TRIM(I162))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/LOCATION SHEETS/1677sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1677sLOCATIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2902E9-91C7-1D41-A64A-E1D7F697C290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4DC48E-6214-7345-A248-AF17248633C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1677sLOCATIONS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1058">
   <si>
     <t>LOCATIONS FOR MIXTURE OF DECADES</t>
   </si>
@@ -3130,9 +3130,6 @@
     </r>
   </si>
   <si>
-    <t>PETERHEAD</t>
-  </si>
-  <si>
     <t>May 1808 to end 1809</t>
   </si>
   <si>
@@ -3919,9 +3916,6 @@
     <t>RR315</t>
   </si>
   <si>
-    <t>RR324</t>
-  </si>
-  <si>
     <t>DERBY (SWANWICK)</t>
   </si>
   <si>
@@ -4069,9 +4063,6 @@
     <t>RR460</t>
   </si>
   <si>
-    <t>Chelmsford (High St)</t>
-  </si>
-  <si>
     <t>RR494</t>
   </si>
   <si>
@@ -4093,10 +4084,34 @@
     <t>CAMDEN TOWN (Joyce)</t>
   </si>
   <si>
-    <t xml:space="preserve">MALTON UNKNOWN </t>
-  </si>
-  <si>
     <t>MALTON UNKNOWN</t>
+  </si>
+  <si>
+    <t>Chelmsford (BRITTON)</t>
+  </si>
+  <si>
+    <t>EDINBURGH UNKNOWN</t>
+  </si>
+  <si>
+    <t>RR502</t>
+  </si>
+  <si>
+    <t>RR503</t>
+  </si>
+  <si>
+    <t>RR504</t>
+  </si>
+  <si>
+    <t>RR505</t>
+  </si>
+  <si>
+    <t>RR506</t>
+  </si>
+  <si>
+    <t>MALTON</t>
+  </si>
+  <si>
+    <t>PETERHEAD (EARLY)</t>
   </si>
 </sst>
 </file>
@@ -4881,8 +4896,8 @@
   <dimension ref="A1:K1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I434" sqref="I434"/>
+      <pane ySplit="6" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I491" sqref="I491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -5071,7 +5086,7 @@
         <v>1790</v>
       </c>
       <c r="H9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J9" s="28" t="s">
         <v>25</v>
@@ -5101,7 +5116,7 @@
         <v>1800</v>
       </c>
       <c r="H10" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>27</v>
@@ -5134,7 +5149,7 @@
         <v>1810</v>
       </c>
       <c r="H11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>25</v>
@@ -5161,8 +5176,8 @@
       <c r="G12" s="30">
         <v>1770</v>
       </c>
-      <c r="H12" t="s">
-        <v>970</v>
+      <c r="H12" s="42" t="s">
+        <v>1010</v>
       </c>
       <c r="K12" s="28" t="s">
         <v>33</v>
@@ -5187,7 +5202,7 @@
         <v>1780</v>
       </c>
       <c r="H13" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>34</v>
@@ -5217,7 +5232,7 @@
         <v>1780</v>
       </c>
       <c r="H14" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>38</v>
@@ -5437,7 +5452,7 @@
         <v>1790</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>51</v>
@@ -5492,7 +5507,7 @@
         <v>1790</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>56</v>
@@ -5525,7 +5540,7 @@
         <v>1800</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="J25" s="28" t="s">
         <v>52</v>
@@ -5555,7 +5570,7 @@
         <v>1720</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>60</v>
@@ -5585,7 +5600,7 @@
         <v>1720</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>62</v>
@@ -5618,7 +5633,7 @@
         <v>1730</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>62</v>
@@ -5651,7 +5666,7 @@
         <v>1730</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>60</v>
@@ -5681,7 +5696,7 @@
         <v>1770</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>62</v>
@@ -5714,7 +5729,7 @@
         <v>1760</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="J31" s="28" t="s">
         <v>68</v>
@@ -5798,7 +5813,7 @@
         <v>1780</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>73</v>
@@ -5828,7 +5843,7 @@
         <v>1790</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>75</v>
@@ -5940,7 +5955,7 @@
         <v>1800</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="J39" s="28" t="s">
         <v>84</v>
@@ -5970,7 +5985,7 @@
         <v>1810</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="K40" s="32" t="s">
         <v>88</v>
@@ -5995,7 +6010,7 @@
         <v>1810</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>87</v>
@@ -6025,7 +6040,7 @@
         <v>1800</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="J42" s="28" t="s">
         <v>90</v>
@@ -6341,10 +6356,10 @@
         <v>1720</v>
       </c>
       <c r="H55" s="42" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I55" s="42" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="K55" s="28" t="s">
         <v>116</v>
@@ -6371,7 +6386,7 @@
         <v>1730</v>
       </c>
       <c r="I56" s="42" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="J56" s="28" t="s">
         <v>118</v>
@@ -6401,7 +6416,7 @@
         <v>1740</v>
       </c>
       <c r="I57" s="42" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="J57" s="28" t="s">
         <v>118</v>
@@ -6431,7 +6446,7 @@
         <v>1750</v>
       </c>
       <c r="I58" s="42" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="J58" s="28" t="s">
         <v>118</v>
@@ -6461,7 +6476,7 @@
         <v>1760</v>
       </c>
       <c r="I59" s="42" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="J59" s="28" t="s">
         <v>118</v>
@@ -6684,6 +6699,9 @@
       <c r="G68" s="30">
         <v>1780</v>
       </c>
+      <c r="H68" t="s">
+        <v>1053</v>
+      </c>
       <c r="K68" s="28" t="s">
         <v>142</v>
       </c>
@@ -6706,6 +6724,9 @@
       <c r="G69" s="30">
         <v>1790</v>
       </c>
+      <c r="H69" t="s">
+        <v>1053</v>
+      </c>
       <c r="K69" s="28" t="s">
         <v>143</v>
       </c>
@@ -6750,6 +6771,9 @@
       <c r="G71" s="30">
         <v>1780</v>
       </c>
+      <c r="H71" t="s">
+        <v>1053</v>
+      </c>
       <c r="K71" s="28" t="s">
         <v>147</v>
       </c>
@@ -6819,7 +6843,7 @@
         <v>1790</v>
       </c>
       <c r="H74" s="42" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J74" s="28" t="s">
         <v>153</v>
@@ -6849,7 +6873,7 @@
         <v>1810</v>
       </c>
       <c r="H75" s="42" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I75" s="28" t="s">
         <v>156</v>
@@ -6882,7 +6906,7 @@
         <v>1780</v>
       </c>
       <c r="H76" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="J76" s="28" t="s">
         <v>160</v>
@@ -6912,7 +6936,7 @@
         <v>1790</v>
       </c>
       <c r="H77" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="J77" s="28" t="s">
         <v>160</v>
@@ -7041,7 +7065,7 @@
         <v>1820</v>
       </c>
       <c r="H81" s="42" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>170</v>
@@ -7074,7 +7098,7 @@
         <v>1720</v>
       </c>
       <c r="H82" s="42" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J82" s="28" t="s">
         <v>174</v>
@@ -7104,7 +7128,7 @@
         <v>1720</v>
       </c>
       <c r="H83" s="42" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J83" s="28" t="s">
         <v>174</v>
@@ -7134,7 +7158,7 @@
         <v>1730</v>
       </c>
       <c r="H84" s="42" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J84" s="28" t="s">
         <v>174</v>
@@ -7164,7 +7188,7 @@
         <v>1730</v>
       </c>
       <c r="H85" s="42" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J85" s="28" t="s">
         <v>174</v>
@@ -7447,7 +7471,7 @@
         <v>1770</v>
       </c>
       <c r="H96" s="42" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="J96" s="28" t="s">
         <v>205</v>
@@ -7553,6 +7577,9 @@
       <c r="G100" s="30">
         <v>1740</v>
       </c>
+      <c r="H100" t="s">
+        <v>1054</v>
+      </c>
       <c r="K100" s="28" t="s">
         <v>213</v>
       </c>
@@ -7575,11 +7602,9 @@
       <c r="G101" s="30">
         <v>1740</v>
       </c>
-      <c r="H101" s="42" t="s">
-        <v>296</v>
-      </c>
+      <c r="H101" s="42"/>
       <c r="I101" s="42" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="K101" s="28" t="s">
         <v>214</v>
@@ -7663,6 +7688,9 @@
       <c r="G104" s="30">
         <v>1790</v>
       </c>
+      <c r="H104" t="s">
+        <v>1055</v>
+      </c>
       <c r="K104" s="28" t="s">
         <v>222</v>
       </c>
@@ -7685,6 +7713,9 @@
       <c r="G105" s="30">
         <v>1790</v>
       </c>
+      <c r="H105" t="s">
+        <v>1055</v>
+      </c>
       <c r="K105" s="28" t="s">
         <v>223</v>
       </c>
@@ -7734,7 +7765,7 @@
         <v>1780</v>
       </c>
       <c r="H107" s="42" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="J107" s="28" t="s">
         <v>228</v>
@@ -7764,7 +7795,7 @@
         <v>1790</v>
       </c>
       <c r="H108" s="42" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="J108" s="28" t="s">
         <v>228</v>
@@ -7793,11 +7824,8 @@
       <c r="G109" s="30">
         <v>1740</v>
       </c>
-      <c r="H109">
-        <v>1291</v>
-      </c>
       <c r="I109" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="J109" s="28" t="s">
         <v>232</v>
@@ -7827,7 +7855,7 @@
         <v>1690</v>
       </c>
       <c r="H110" s="42" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="J110" s="28" t="s">
         <v>235</v>
@@ -7857,7 +7885,7 @@
         <v>1690</v>
       </c>
       <c r="H111" s="42" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I111" s="28" t="s">
         <v>237</v>
@@ -7890,7 +7918,7 @@
         <v>1700</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="J112" s="28" t="s">
         <v>235</v>
@@ -7920,7 +7948,7 @@
         <v>1700</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I113" s="28" t="s">
         <v>237</v>
@@ -7953,7 +7981,7 @@
         <v>1710</v>
       </c>
       <c r="H114" s="42" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I114" s="28" t="s">
         <v>242</v>
@@ -7986,7 +8014,7 @@
         <v>1710</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I115" s="28" t="s">
         <v>244</v>
@@ -8029,7 +8057,7 @@
       </c>
       <c r="C117" s="25"/>
       <c r="D117" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E117" s="26"/>
       <c r="F117" s="28" t="s">
@@ -8108,10 +8136,10 @@
         <v>1720</v>
       </c>
       <c r="H120" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I120" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="K120" s="28" t="s">
         <v>251</v>
@@ -8137,8 +8165,11 @@
       <c r="G121" s="30">
         <v>1720</v>
       </c>
+      <c r="H121" t="s">
+        <v>1033</v>
+      </c>
       <c r="I121" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="K121" s="28" t="s">
         <v>253</v>
@@ -8162,8 +8193,11 @@
       <c r="G122" s="30">
         <v>1730</v>
       </c>
+      <c r="H122" t="s">
+        <v>1033</v>
+      </c>
       <c r="I122" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="K122" s="28" t="s">
         <v>254</v>
@@ -8189,8 +8223,11 @@
       <c r="G123" s="30">
         <v>1740</v>
       </c>
+      <c r="H123" t="s">
+        <v>1033</v>
+      </c>
       <c r="I123" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="K123" s="28" t="s">
         <v>255</v>
@@ -8216,8 +8253,11 @@
       <c r="G124" s="30">
         <v>1750</v>
       </c>
+      <c r="H124" t="s">
+        <v>1033</v>
+      </c>
       <c r="I124" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="K124" s="28" t="s">
         <v>256</v>
@@ -8341,8 +8381,11 @@
       <c r="G129" s="30">
         <v>1730</v>
       </c>
+      <c r="H129" t="s">
+        <v>1033</v>
+      </c>
       <c r="I129" s="6" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="K129" s="28" t="s">
         <v>255</v>
@@ -8369,7 +8412,7 @@
         <v>1760</v>
       </c>
       <c r="H130" s="42" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I130" s="28" t="s">
         <v>267</v>
@@ -8402,7 +8445,7 @@
         <v>1760</v>
       </c>
       <c r="H131" s="42" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I131" s="28" t="s">
         <v>270</v>
@@ -8432,7 +8475,7 @@
         <v>1770</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I132" s="28" t="s">
         <v>270</v>
@@ -8578,7 +8621,7 @@
         <v>1770</v>
       </c>
       <c r="H138" s="42" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="K138" s="28" t="s">
         <v>284</v>
@@ -8603,7 +8646,7 @@
         <v>1770</v>
       </c>
       <c r="H139" s="42" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="K139" s="28" t="s">
         <v>286</v>
@@ -8628,7 +8671,7 @@
         <v>1780</v>
       </c>
       <c r="H140" s="42" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="K140" s="28" t="s">
         <v>287</v>
@@ -8653,7 +8696,7 @@
         <v>1790</v>
       </c>
       <c r="H141" s="42" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="K141" s="28" t="s">
         <v>287</v>
@@ -8752,7 +8795,7 @@
         <v>1730</v>
       </c>
       <c r="H145" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I145" s="28" t="s">
         <v>297</v>
@@ -8779,7 +8822,7 @@
         <v>1730</v>
       </c>
       <c r="H146" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I146" s="28" t="s">
         <v>297</v>
@@ -8806,7 +8849,7 @@
         <v>1740</v>
       </c>
       <c r="H147" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="13">
@@ -8830,7 +8873,7 @@
         <v>1750</v>
       </c>
       <c r="H148" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I148" s="28" t="s">
         <v>297</v>
@@ -8857,7 +8900,7 @@
         <v>1760</v>
       </c>
       <c r="H149" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="13">
@@ -8881,7 +8924,7 @@
         <v>1770</v>
       </c>
       <c r="H150" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="13">
@@ -8905,7 +8948,7 @@
         <v>1770</v>
       </c>
       <c r="H151" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="13">
@@ -8929,7 +8972,7 @@
         <v>1780</v>
       </c>
       <c r="H152" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I152" s="28" t="s">
         <v>297</v>
@@ -8956,7 +8999,7 @@
         <v>1790</v>
       </c>
       <c r="H153" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="13">
@@ -8980,7 +9023,7 @@
         <v>1800</v>
       </c>
       <c r="H154" s="42" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="13">
@@ -9017,7 +9060,7 @@
       </c>
       <c r="C156" s="25"/>
       <c r="D156" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E156" s="26"/>
       <c r="F156" s="28" t="s">
@@ -9027,7 +9070,7 @@
         <v>1800</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J156" s="28" t="s">
         <v>303</v>
@@ -9107,7 +9150,7 @@
         <v>1790</v>
       </c>
       <c r="H159" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="J159" s="28" t="s">
         <v>313</v>
@@ -9137,7 +9180,7 @@
         <v>1800</v>
       </c>
       <c r="H160" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="J160" s="28" t="s">
         <v>313</v>
@@ -9167,7 +9210,7 @@
         <v>1800</v>
       </c>
       <c r="H161" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="I161" s="23"/>
       <c r="J161" s="28" t="s">
@@ -9465,7 +9508,7 @@
         <v>1810</v>
       </c>
       <c r="I171" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="J171" s="28" t="s">
         <v>333</v>
@@ -9520,7 +9563,7 @@
         <v>1830</v>
       </c>
       <c r="H173" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I173" s="28" t="s">
         <v>339</v>
@@ -9553,7 +9596,7 @@
         <v>1840</v>
       </c>
       <c r="H174" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="I174" s="28" t="s">
         <v>339</v>
@@ -9584,7 +9627,7 @@
         <v>1770</v>
       </c>
       <c r="H175" s="42" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K175" s="28" t="s">
         <v>344</v>
@@ -9611,7 +9654,7 @@
         <v>1770</v>
       </c>
       <c r="H176" s="42" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J176" s="28" t="s">
         <v>346</v>
@@ -9641,7 +9684,7 @@
         <v>1770</v>
       </c>
       <c r="H177" s="42" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K177" s="28" t="s">
         <v>347</v>
@@ -9668,7 +9711,7 @@
         <v>1780</v>
       </c>
       <c r="H178" s="42" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K178" s="28" t="s">
         <v>348</v>
@@ -9693,7 +9736,7 @@
         <v>1780</v>
       </c>
       <c r="H179" s="42" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K179" s="28" t="s">
         <v>349</v>
@@ -9720,7 +9763,7 @@
         <v>1780</v>
       </c>
       <c r="H180" s="42" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="K180" s="28" t="s">
         <v>348</v>
@@ -9747,7 +9790,7 @@
         <v>1790</v>
       </c>
       <c r="H181" s="42" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J181" s="28" t="s">
         <v>346</v>
@@ -9797,7 +9840,7 @@
         <v>1780</v>
       </c>
       <c r="H183" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I183" s="28" t="s">
         <v>354</v>
@@ -9872,10 +9915,10 @@
         <v>1800</v>
       </c>
       <c r="H186" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I186" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="K186" s="28" t="s">
         <v>357</v>
@@ -9900,7 +9943,7 @@
         <v>1810</v>
       </c>
       <c r="I187" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="K187" s="28" t="s">
         <v>358</v>
@@ -9925,7 +9968,7 @@
         <v>1790</v>
       </c>
       <c r="H188" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I188" s="28" t="s">
         <v>359</v>
@@ -10155,7 +10198,7 @@
         <v>1830</v>
       </c>
       <c r="H197" s="42" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J197" s="28" t="s">
         <v>370</v>
@@ -10185,7 +10228,7 @@
         <v>1840</v>
       </c>
       <c r="H198" s="42" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J198" s="28" t="s">
         <v>370</v>
@@ -10215,7 +10258,7 @@
         <v>1830</v>
       </c>
       <c r="H199" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="K199" s="28" t="s">
         <v>375</v>
@@ -10242,7 +10285,7 @@
         <v>1840</v>
       </c>
       <c r="H200" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I200" s="28" t="s">
         <v>376</v>
@@ -10294,7 +10337,7 @@
         <v>1670</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J202" s="28" t="s">
         <v>382</v>
@@ -10324,7 +10367,7 @@
         <v>1680</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J203" s="28" t="s">
         <v>382</v>
@@ -10354,7 +10397,7 @@
         <v>1680</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I204" s="28" t="s">
         <v>386</v>
@@ -10387,7 +10430,7 @@
         <v>1690</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J205" s="28" t="s">
         <v>382</v>
@@ -10417,7 +10460,7 @@
         <v>1690</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I206" s="28" t="s">
         <v>381</v>
@@ -10450,7 +10493,7 @@
         <v>1700</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I207" s="28" t="s">
         <v>389</v>
@@ -10481,7 +10524,7 @@
         <v>1780</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="K208" s="28" t="s">
         <v>392</v>
@@ -10655,10 +10698,10 @@
         <v>1780</v>
       </c>
       <c r="H215" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I215" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K215" s="28" t="s">
         <v>402</v>
@@ -10683,7 +10726,7 @@
         <v>1780</v>
       </c>
       <c r="I216" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K216" s="28" t="s">
         <v>403</v>
@@ -10708,7 +10751,7 @@
         <v>1790</v>
       </c>
       <c r="I217" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K217" s="28" t="s">
         <v>404</v>
@@ -10733,7 +10776,7 @@
         <v>1790</v>
       </c>
       <c r="I218" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K218" s="28" t="s">
         <v>405</v>
@@ -10760,7 +10803,7 @@
         <v>1790</v>
       </c>
       <c r="I219" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K219" s="28" t="s">
         <v>407</v>
@@ -10785,7 +10828,7 @@
         <v>1790</v>
       </c>
       <c r="I220" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K220" s="28" t="s">
         <v>394</v>
@@ -10812,7 +10855,7 @@
         <v>1820</v>
       </c>
       <c r="H221" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K221" s="28" t="s">
         <v>410</v>
@@ -10884,7 +10927,7 @@
         <v>1820</v>
       </c>
       <c r="H224" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J224" s="28" t="s">
         <v>414</v>
@@ -10911,7 +10954,7 @@
         <v>1830</v>
       </c>
       <c r="H225" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J225" s="28" t="s">
         <v>414</v>
@@ -10936,7 +10979,7 @@
         <v>1840</v>
       </c>
       <c r="H226" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I226" s="28" t="s">
         <v>417</v>
@@ -10963,7 +11006,7 @@
         <v>1830</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="J227" s="28" t="s">
         <v>420</v>
@@ -10993,7 +11036,7 @@
         <v>1840</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="J228" s="28" t="s">
         <v>420</v>
@@ -11033,10 +11076,10 @@
         <v>1770</v>
       </c>
       <c r="H230" s="42" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I230" s="42" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="K230" s="28" t="s">
         <v>425</v>
@@ -11061,7 +11104,7 @@
         <v>1780</v>
       </c>
       <c r="I231" s="42" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="K231" s="28" t="s">
         <v>426</v>
@@ -11088,7 +11131,7 @@
         <v>1820</v>
       </c>
       <c r="H232" s="42" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I232" s="28" t="s">
         <v>428</v>
@@ -11118,7 +11161,7 @@
         <v>1830</v>
       </c>
       <c r="H233" s="42" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I233" s="28" t="s">
         <v>428</v>
@@ -11148,7 +11191,7 @@
         <v>1840</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I234" s="28" t="s">
         <v>428</v>
@@ -11260,7 +11303,7 @@
         <v>1830</v>
       </c>
       <c r="H238" s="42" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I238" s="28" t="s">
         <v>434</v>
@@ -11293,7 +11336,7 @@
         <v>1840</v>
       </c>
       <c r="H239" s="42" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I239" s="28" t="s">
         <v>434</v>
@@ -11326,7 +11369,7 @@
         <v>1830</v>
       </c>
       <c r="H240" s="42" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="J240" s="28" t="s">
         <v>438</v>
@@ -11766,7 +11809,7 @@
         <v>1870</v>
       </c>
       <c r="H257" s="42" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J257" s="28" t="s">
         <v>482</v>
@@ -12067,7 +12110,7 @@
         <v>1750</v>
       </c>
       <c r="H268" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I268" s="28" t="s">
         <v>508</v>
@@ -12209,10 +12252,10 @@
         <v>1800</v>
       </c>
       <c r="H273" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I273" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K273" s="28" t="s">
         <v>516</v>
@@ -12237,7 +12280,7 @@
         <v>1810</v>
       </c>
       <c r="I274" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K274" s="28" t="s">
         <v>517</v>
@@ -12262,7 +12305,7 @@
         <v>1820</v>
       </c>
       <c r="I275" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K275" s="28" t="s">
         <v>518</v>
@@ -12336,10 +12379,10 @@
         <v>1780</v>
       </c>
       <c r="H278" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="I278" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="J278" s="28" t="s">
         <v>525</v>
@@ -12367,7 +12410,7 @@
         <v>1780</v>
       </c>
       <c r="I279" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="K279" s="28" t="s">
         <v>527</v>
@@ -12392,7 +12435,7 @@
         <v>1790</v>
       </c>
       <c r="I280" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="K280" s="28" t="s">
         <v>528</v>
@@ -12419,7 +12462,7 @@
         <v>1790</v>
       </c>
       <c r="I281" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="K281" s="28" t="s">
         <v>530</v>
@@ -12444,7 +12487,7 @@
         <v>1790</v>
       </c>
       <c r="I282" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="K282" s="28" t="s">
         <v>531</v>
@@ -12497,7 +12540,7 @@
         <v>1790</v>
       </c>
       <c r="I284" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K284" s="28" t="s">
         <v>535</v>
@@ -12522,7 +12565,7 @@
         <v>1800</v>
       </c>
       <c r="I285" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K285" s="28" t="s">
         <v>536</v>
@@ -12720,10 +12763,10 @@
         <v>1770</v>
       </c>
       <c r="H292" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K292" s="28" t="s">
         <v>550</v>
@@ -12750,10 +12793,10 @@
         <v>1770</v>
       </c>
       <c r="H293" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I293" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K293" s="28" t="s">
         <v>551</v>
@@ -12778,10 +12821,10 @@
         <v>1780</v>
       </c>
       <c r="H294" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I294" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K294" s="28" t="s">
         <v>552</v>
@@ -12806,10 +12849,10 @@
         <v>1790</v>
       </c>
       <c r="H295" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I295" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K295" s="28" t="s">
         <v>553</v>
@@ -12920,7 +12963,7 @@
         <v>1770</v>
       </c>
       <c r="H299" s="42" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="J299" s="28" t="s">
         <v>565</v>
@@ -12950,7 +12993,7 @@
         <v>1780</v>
       </c>
       <c r="H300" s="42" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="J300" s="28" t="s">
         <v>565</v>
@@ -13042,7 +13085,7 @@
         <v>1760</v>
       </c>
       <c r="H303" s="42" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="K303" s="28" t="s">
         <v>576</v>
@@ -13069,7 +13112,7 @@
         <v>1770</v>
       </c>
       <c r="H304" s="42" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="K304" s="28" t="s">
         <v>326</v>
@@ -13118,6 +13161,9 @@
       <c r="G306" s="30">
         <v>1770</v>
       </c>
+      <c r="H306" t="s">
+        <v>1052</v>
+      </c>
       <c r="I306" s="28" t="s">
         <v>579</v>
       </c>
@@ -13146,6 +13192,9 @@
       <c r="G307" s="30">
         <v>1770</v>
       </c>
+      <c r="H307" t="s">
+        <v>1052</v>
+      </c>
       <c r="I307" s="28" t="s">
         <v>582</v>
       </c>
@@ -13218,6 +13267,9 @@
       <c r="G310" s="30">
         <v>1780</v>
       </c>
+      <c r="H310" t="s">
+        <v>1051</v>
+      </c>
       <c r="I310" s="28" t="s">
         <v>587</v>
       </c>
@@ -13245,6 +13297,9 @@
       <c r="G311" s="30">
         <v>1790</v>
       </c>
+      <c r="H311" t="s">
+        <v>1051</v>
+      </c>
       <c r="I311" s="6" t="s">
         <v>587</v>
       </c>
@@ -13369,8 +13424,8 @@
         <v>92</v>
       </c>
       <c r="C316" s="25"/>
-      <c r="D316" s="23" t="s">
-        <v>584</v>
+      <c r="D316" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E316" s="26"/>
       <c r="F316" s="28" t="s">
@@ -13379,6 +13434,9 @@
       <c r="G316" s="30">
         <v>1800</v>
       </c>
+      <c r="I316" t="s">
+        <v>1050</v>
+      </c>
       <c r="K316" s="28" t="s">
         <v>599</v>
       </c>
@@ -13539,7 +13597,7 @@
         <v>1810</v>
       </c>
       <c r="H323" s="42" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I323" s="28" t="s">
         <v>610</v>
@@ -13665,7 +13723,7 @@
         <v>1810</v>
       </c>
       <c r="H328" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J328" s="28" t="s">
         <v>621</v>
@@ -13975,7 +14033,7 @@
         <v>1770</v>
       </c>
       <c r="H339" s="42" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I339" s="28" t="s">
         <v>647</v>
@@ -14008,7 +14066,7 @@
         <v>1780</v>
       </c>
       <c r="H340" s="42" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="I340" s="28" t="s">
         <v>647</v>
@@ -14039,7 +14097,7 @@
         <v>1830</v>
       </c>
       <c r="H341" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K341" s="37" t="s">
         <v>652</v>
@@ -14066,7 +14124,7 @@
         <v>1840</v>
       </c>
       <c r="H342" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K342" s="37" t="s">
         <v>377</v>
@@ -14181,7 +14239,7 @@
         <v>1790</v>
       </c>
       <c r="H347" s="42" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="K347" s="37" t="s">
         <v>661</v>
@@ -14206,7 +14264,7 @@
         <v>1800</v>
       </c>
       <c r="H348" s="42" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="K348" s="37" t="s">
         <v>662</v>
@@ -14231,7 +14289,7 @@
         <v>1710</v>
       </c>
       <c r="H349" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I349" s="4" t="s">
         <v>663</v>
@@ -14284,7 +14342,7 @@
         <v>1840</v>
       </c>
       <c r="H351" s="42" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="K351" s="37" t="s">
         <v>666</v>
@@ -14309,7 +14367,7 @@
         <v>1850</v>
       </c>
       <c r="H352" s="42" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="K352" s="37" t="s">
         <v>667</v>
@@ -14359,7 +14417,7 @@
         <v>1840</v>
       </c>
       <c r="H354" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="K354" s="28" t="s">
         <v>671</v>
@@ -14384,7 +14442,7 @@
         <v>1850</v>
       </c>
       <c r="H355" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I355" s="28" t="s">
         <v>670</v>
@@ -14488,7 +14546,7 @@
         <v>1800</v>
       </c>
       <c r="H359" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I359" s="28" t="s">
         <v>682</v>
@@ -14516,7 +14574,7 @@
         <v>1800</v>
       </c>
       <c r="H360" s="42" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I360" s="28" t="s">
         <v>684</v>
@@ -14699,7 +14757,7 @@
         <v>1800</v>
       </c>
       <c r="H367" s="42" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I367" s="28" t="s">
         <v>698</v>
@@ -14757,7 +14815,7 @@
         <v>1800</v>
       </c>
       <c r="H369" s="42" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="K369" s="37" t="s">
         <v>705</v>
@@ -14912,7 +14970,7 @@
         <v>1800</v>
       </c>
       <c r="H375" s="42" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="K375" s="28" t="s">
         <v>41</v>
@@ -14964,7 +15022,7 @@
         <v>1800</v>
       </c>
       <c r="H377" s="42" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="J377" s="28" t="s">
         <v>717</v>
@@ -15009,7 +15067,7 @@
       </c>
       <c r="C379" s="25"/>
       <c r="D379" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E379" s="26"/>
       <c r="F379" s="28" t="s">
@@ -15019,7 +15077,7 @@
         <v>1800</v>
       </c>
       <c r="I379" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K379" s="28" t="s">
         <v>721</v>
@@ -15137,7 +15195,7 @@
       </c>
       <c r="C384" s="25"/>
       <c r="D384" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E384" s="26"/>
       <c r="F384" s="28" t="s">
@@ -15147,7 +15205,7 @@
         <v>1800</v>
       </c>
       <c r="I384" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K384" s="28" t="s">
         <v>729</v>
@@ -15227,7 +15285,7 @@
         <v>1800</v>
       </c>
       <c r="H387" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I387" t="s">
         <v>351</v>
@@ -15401,7 +15459,7 @@
         <v>1800</v>
       </c>
       <c r="H394" s="42" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K394" s="37" t="s">
         <v>746</v>
@@ -15426,7 +15484,7 @@
         <v>1800</v>
       </c>
       <c r="H395" s="42" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K395" s="37" t="s">
         <v>748</v>
@@ -15545,7 +15603,7 @@
         <v>1800</v>
       </c>
       <c r="H400" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I400" s="6" t="s">
         <v>532</v>
@@ -15646,7 +15704,7 @@
         <v>1800</v>
       </c>
       <c r="H404" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J404" s="28" t="s">
         <v>763</v>
@@ -15674,7 +15732,7 @@
         <v>1800</v>
       </c>
       <c r="H405" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="K405" s="28" t="s">
         <v>766</v>
@@ -15873,10 +15931,10 @@
         <v>1800</v>
       </c>
       <c r="H413" s="42" t="s">
+        <v>979</v>
+      </c>
+      <c r="I413" s="6" t="s">
         <v>980</v>
-      </c>
-      <c r="I413" s="6" t="s">
-        <v>981</v>
       </c>
       <c r="J413" s="28" t="s">
         <v>611</v>
@@ -15893,8 +15951,8 @@
         <v>56</v>
       </c>
       <c r="C414" s="25"/>
-      <c r="D414" s="23" t="s">
-        <v>779</v>
+      <c r="D414" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E414" s="26"/>
       <c r="F414" s="28" t="s">
@@ -15903,8 +15961,11 @@
       <c r="G414" s="30">
         <v>1800</v>
       </c>
+      <c r="I414" t="s">
+        <v>1057</v>
+      </c>
       <c r="K414" s="28" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="415" spans="1:11" ht="13">
@@ -15916,7 +15977,7 @@
       </c>
       <c r="C415" s="25"/>
       <c r="D415" s="23" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E415" s="26"/>
       <c r="F415" s="28" t="s">
@@ -15926,7 +15987,7 @@
         <v>1800</v>
       </c>
       <c r="K415" s="28" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="416" spans="1:11" ht="13">
@@ -15950,10 +16011,10 @@
         <v>1800</v>
       </c>
       <c r="I416" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="K416" s="28" t="s">
         <v>783</v>
-      </c>
-      <c r="K416" s="28" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="417" spans="1:11" ht="13">
@@ -15981,10 +16042,10 @@
         <v>656</v>
       </c>
       <c r="J417" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="K417" s="37" t="s">
         <v>785</v>
-      </c>
-      <c r="K417" s="37" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="418" spans="1:11" ht="13">
@@ -15996,7 +16057,7 @@
       </c>
       <c r="C418" s="25"/>
       <c r="D418" s="23" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E418" s="26"/>
       <c r="F418" s="28" t="s">
@@ -16006,7 +16067,7 @@
         <v>1800</v>
       </c>
       <c r="K418" s="28" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="419" spans="1:11" ht="13">
@@ -16018,7 +16079,7 @@
       </c>
       <c r="C419" s="25"/>
       <c r="D419" s="23" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E419" s="26"/>
       <c r="F419" s="28" t="s">
@@ -16031,7 +16092,7 @@
         <v>6121</v>
       </c>
       <c r="K419" s="28" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="420" spans="1:11" ht="13">
@@ -16095,7 +16156,7 @@
         <v>1800</v>
       </c>
       <c r="K422" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="423" spans="1:11" ht="13">
@@ -16117,13 +16178,13 @@
         <v>1810</v>
       </c>
       <c r="I423" s="28" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J423" s="28" t="s">
         <v>775</v>
       </c>
       <c r="K423" s="28" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="424" spans="1:11" ht="13">
@@ -16145,16 +16206,16 @@
         <v>1800</v>
       </c>
       <c r="H424" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J424" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="K424" s="28" t="s">
         <v>794</v>
-      </c>
-      <c r="K424" s="28" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="425" spans="1:11" ht="13">
@@ -16176,16 +16237,16 @@
         <v>1810</v>
       </c>
       <c r="H425" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I425" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="J425" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="K425" s="28" t="s">
         <v>796</v>
-      </c>
-      <c r="J425" s="28" t="s">
-        <v>794</v>
-      </c>
-      <c r="K425" s="28" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="426" spans="1:11" ht="13">
@@ -16207,13 +16268,13 @@
         <v>1810</v>
       </c>
       <c r="H426" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I426" s="28" t="s">
+        <v>797</v>
+      </c>
+      <c r="K426" s="28" t="s">
         <v>798</v>
-      </c>
-      <c r="K426" s="28" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="427" spans="1:11" ht="13">
@@ -16225,7 +16286,7 @@
       </c>
       <c r="C427" s="25"/>
       <c r="D427" s="23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E427" s="26"/>
       <c r="F427" s="28" t="s">
@@ -16235,7 +16296,7 @@
         <v>1820</v>
       </c>
       <c r="K427" s="28" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="428" spans="1:11" ht="13">
@@ -16257,10 +16318,10 @@
         <v>1810</v>
       </c>
       <c r="I428" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="K428" s="28" t="s">
         <v>801</v>
-      </c>
-      <c r="K428" s="28" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="429" spans="1:11" ht="13">
@@ -16274,7 +16335,7 @@
         <v>368</v>
       </c>
       <c r="D429" s="23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E429" s="26"/>
       <c r="F429" s="28" t="s">
@@ -16284,13 +16345,13 @@
         <v>1810</v>
       </c>
       <c r="H429" s="42" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J429" s="28" t="s">
         <v>370</v>
       </c>
       <c r="K429" s="28" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="430" spans="1:11" ht="13">
@@ -16302,7 +16363,7 @@
       </c>
       <c r="C430" s="25"/>
       <c r="D430" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E430" s="26"/>
       <c r="F430" s="28" t="s">
@@ -16315,7 +16376,7 @@
         <v>2902</v>
       </c>
       <c r="K430" s="28" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="431" spans="1:11" ht="13">
@@ -16337,10 +16398,10 @@
         <v>1810</v>
       </c>
       <c r="H431" s="42" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K431" s="28" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="432" spans="1:11" ht="13">
@@ -16352,7 +16413,7 @@
       </c>
       <c r="C432" s="25"/>
       <c r="D432" s="23" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E432" s="26"/>
       <c r="F432" s="28" t="s">
@@ -16362,10 +16423,10 @@
         <v>1810</v>
       </c>
       <c r="H432" s="42" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K432" s="28" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="433" spans="1:11" ht="13">
@@ -16377,7 +16438,7 @@
       </c>
       <c r="C433" s="25"/>
       <c r="D433" s="23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E433" s="26"/>
       <c r="F433" s="28" t="s">
@@ -16387,10 +16448,10 @@
         <v>1810</v>
       </c>
       <c r="J433" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="K433" s="28" t="s">
         <v>811</v>
-      </c>
-      <c r="K433" s="28" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="434" spans="1:11" ht="13">
@@ -16412,10 +16473,10 @@
         <v>1800</v>
       </c>
       <c r="I434" s="6" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="K434" s="37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="435" spans="1:11" ht="13">
@@ -16427,7 +16488,7 @@
       </c>
       <c r="C435" s="25"/>
       <c r="D435" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E435" s="26"/>
       <c r="F435" s="28" t="s">
@@ -16437,7 +16498,7 @@
         <v>1810</v>
       </c>
       <c r="K435" s="28" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="436" spans="1:11" ht="13">
@@ -16459,7 +16520,7 @@
         <v>1810</v>
       </c>
       <c r="K436" s="28" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="437" spans="1:11" ht="13">
@@ -16471,7 +16532,7 @@
       </c>
       <c r="C437" s="25"/>
       <c r="D437" s="23" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E437" s="26"/>
       <c r="F437" s="28" t="s">
@@ -16481,7 +16542,7 @@
         <v>1810</v>
       </c>
       <c r="K437" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="438" spans="1:11" ht="13">
@@ -16493,7 +16554,7 @@
       </c>
       <c r="C438" s="25"/>
       <c r="D438" s="23" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E438" s="26"/>
       <c r="F438" s="28" t="s">
@@ -16503,7 +16564,7 @@
         <v>1810</v>
       </c>
       <c r="K438" s="28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="439" spans="1:11" ht="13">
@@ -16515,7 +16576,7 @@
       </c>
       <c r="C439" s="25"/>
       <c r="D439" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E439" s="26"/>
       <c r="F439" s="28" t="s">
@@ -16525,10 +16586,10 @@
         <v>1810</v>
       </c>
       <c r="H439" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="K439" s="28" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="440" spans="1:11" ht="13">
@@ -16550,7 +16611,7 @@
         <v>1810</v>
       </c>
       <c r="K440" s="28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="441" spans="1:11" ht="13">
@@ -16572,10 +16633,10 @@
         <v>1810</v>
       </c>
       <c r="I441" s="28" t="s">
+        <v>823</v>
+      </c>
+      <c r="K441" s="37" t="s">
         <v>824</v>
-      </c>
-      <c r="K441" s="37" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="442" spans="1:11" ht="13">
@@ -16587,7 +16648,7 @@
       </c>
       <c r="C442" s="25"/>
       <c r="D442" s="23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E442" s="26"/>
       <c r="F442" s="28" t="s">
@@ -16597,7 +16658,7 @@
         <v>1810</v>
       </c>
       <c r="K442" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="443" spans="1:11" ht="13">
@@ -16621,10 +16682,10 @@
         <v>1810</v>
       </c>
       <c r="I443" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="K443" s="28" t="s">
         <v>828</v>
-      </c>
-      <c r="K443" s="28" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="444" spans="1:11" ht="13">
@@ -16635,7 +16696,7 @@
         <v>88</v>
       </c>
       <c r="C444" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D444" s="23" t="s">
         <v>20</v>
@@ -16648,7 +16709,7 @@
         <v>1810</v>
       </c>
       <c r="H444" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I444" s="28" t="s">
         <v>27</v>
@@ -16657,7 +16718,7 @@
         <v>25</v>
       </c>
       <c r="K444" s="28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="445" spans="1:11" ht="13">
@@ -16681,16 +16742,16 @@
         <v>1810</v>
       </c>
       <c r="H445" s="42" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I445" s="28" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J445" s="28" t="s">
         <v>153</v>
       </c>
       <c r="K445" s="28" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="446" spans="1:11" ht="13">
@@ -16702,10 +16763,10 @@
       </c>
       <c r="C446" s="25"/>
       <c r="D446" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="E446" s="23" t="s">
         <v>834</v>
-      </c>
-      <c r="E446" s="23" t="s">
-        <v>835</v>
       </c>
       <c r="F446" s="28" t="s">
         <v>21</v>
@@ -16717,7 +16778,7 @@
         <v>17</v>
       </c>
       <c r="K446" s="28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="447" spans="1:11" ht="13">
@@ -16729,7 +16790,7 @@
       </c>
       <c r="C447" s="25"/>
       <c r="D447" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E447" s="26"/>
       <c r="F447" s="28" t="s">
@@ -16742,7 +16803,7 @@
         <v>17</v>
       </c>
       <c r="K447" s="28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="448" spans="1:11" ht="13">
@@ -16764,10 +16825,10 @@
         <v>1810</v>
       </c>
       <c r="I448" s="28" t="s">
+        <v>838</v>
+      </c>
+      <c r="K448" s="28" t="s">
         <v>839</v>
-      </c>
-      <c r="K448" s="28" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="449" spans="1:11" ht="13">
@@ -16789,10 +16850,10 @@
         <v>1810</v>
       </c>
       <c r="H449" s="42" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="K449" s="28" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="450" spans="1:11" ht="13">
@@ -16804,10 +16865,10 @@
       </c>
       <c r="C450" s="25"/>
       <c r="D450" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="E450" s="23" t="s">
         <v>842</v>
-      </c>
-      <c r="E450" s="23" t="s">
-        <v>843</v>
       </c>
       <c r="F450" s="28" t="s">
         <v>21</v>
@@ -16816,7 +16877,7 @@
         <v>1810</v>
       </c>
       <c r="K450" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="451" spans="1:11" ht="13">
@@ -16827,10 +16888,10 @@
         <v>95</v>
       </c>
       <c r="C451" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="D451" s="23" t="s">
         <v>845</v>
-      </c>
-      <c r="D451" s="23" t="s">
-        <v>846</v>
       </c>
       <c r="E451" s="26"/>
       <c r="F451" s="28" t="s">
@@ -16840,7 +16901,7 @@
         <v>1810</v>
       </c>
       <c r="K451" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="452" spans="1:11" ht="13">
@@ -16852,7 +16913,7 @@
       </c>
       <c r="C452" s="25"/>
       <c r="D452" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E452" s="26"/>
       <c r="F452" s="28" t="s">
@@ -16862,7 +16923,7 @@
         <v>1810</v>
       </c>
       <c r="K452" s="28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="453" spans="1:11" ht="13">
@@ -16884,13 +16945,13 @@
         <v>1810</v>
       </c>
       <c r="H453" s="42" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I453" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K453" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="454" spans="1:11" ht="13">
@@ -16901,7 +16962,7 @@
         <v>98</v>
       </c>
       <c r="C454" s="29" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D454" s="23" t="s">
         <v>20</v>
@@ -16917,10 +16978,10 @@
         <v>1052</v>
       </c>
       <c r="I454" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="K454" s="28" t="s">
         <v>851</v>
-      </c>
-      <c r="K454" s="28" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="455" spans="1:11" ht="13">
@@ -16942,13 +17003,13 @@
         <v>1810</v>
       </c>
       <c r="I455" s="28" t="s">
+        <v>852</v>
+      </c>
+      <c r="J455" s="28" t="s">
         <v>853</v>
       </c>
-      <c r="J455" s="28" t="s">
+      <c r="K455" s="28" t="s">
         <v>854</v>
-      </c>
-      <c r="K455" s="28" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="456" spans="1:11" ht="13">
@@ -16970,10 +17031,10 @@
         <v>1810</v>
       </c>
       <c r="I456" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="K456" s="28" t="s">
         <v>856</v>
-      </c>
-      <c r="K456" s="28" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="457" spans="1:11" ht="13">
@@ -16987,7 +17048,7 @@
         <v>36</v>
       </c>
       <c r="D457" s="23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E457" s="26"/>
       <c r="F457" s="28" t="s">
@@ -16997,7 +17058,7 @@
         <v>1810</v>
       </c>
       <c r="K457" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="458" spans="1:11" ht="13">
@@ -17011,7 +17072,7 @@
         <v>71</v>
       </c>
       <c r="D458" s="23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E458" s="26"/>
       <c r="F458" s="28" t="s">
@@ -17021,10 +17082,10 @@
         <v>1810</v>
       </c>
       <c r="H458" s="42" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="K458" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="459" spans="1:11" ht="13">
@@ -17048,13 +17109,13 @@
         <v>1810</v>
       </c>
       <c r="H459" s="42" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I459" s="28" t="s">
+        <v>861</v>
+      </c>
+      <c r="K459" s="28" t="s">
         <v>862</v>
-      </c>
-      <c r="K459" s="28" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="460" spans="1:11" ht="13">
@@ -17078,10 +17139,10 @@
         <v>1810</v>
       </c>
       <c r="I460" s="6" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K460" s="28" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="461" spans="1:11" ht="13">
@@ -17092,7 +17153,7 @@
         <v>105</v>
       </c>
       <c r="C461" s="29" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D461" s="23" t="s">
         <v>20</v>
@@ -17105,10 +17166,10 @@
         <v>1810</v>
       </c>
       <c r="I461" s="28" t="s">
+        <v>865</v>
+      </c>
+      <c r="K461" s="28" t="s">
         <v>866</v>
-      </c>
-      <c r="K461" s="28" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="462" spans="1:11" ht="13">
@@ -17122,7 +17183,7 @@
         <v>23</v>
       </c>
       <c r="D462" s="23" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E462" s="26"/>
       <c r="F462" s="28" t="s">
@@ -17132,7 +17193,7 @@
         <v>1810</v>
       </c>
       <c r="K462" s="28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="463" spans="1:11" ht="13">
@@ -17143,10 +17204,10 @@
         <v>107</v>
       </c>
       <c r="C463" s="29" t="s">
+        <v>868</v>
+      </c>
+      <c r="D463" s="23" t="s">
         <v>869</v>
-      </c>
-      <c r="D463" s="23" t="s">
-        <v>870</v>
       </c>
       <c r="E463" s="26"/>
       <c r="F463" s="28" t="s">
@@ -17159,7 +17220,7 @@
         <v>1771</v>
       </c>
       <c r="K463" s="28" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="464" spans="1:11" ht="13">
@@ -17181,10 +17242,10 @@
         <v>1810</v>
       </c>
       <c r="I464" s="28" t="s">
+        <v>870</v>
+      </c>
+      <c r="K464" s="28" t="s">
         <v>871</v>
-      </c>
-      <c r="K464" s="28" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="465" spans="1:11" ht="13">
@@ -17208,10 +17269,10 @@
         <v>1810</v>
       </c>
       <c r="I465" s="28" t="s">
+        <v>872</v>
+      </c>
+      <c r="K465" s="28" t="s">
         <v>873</v>
-      </c>
-      <c r="K465" s="28" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="466" spans="1:11" ht="13">
@@ -17235,16 +17296,16 @@
         <v>1770</v>
       </c>
       <c r="H466" s="42" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I466" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="J466" s="28" t="s">
         <v>875</v>
       </c>
-      <c r="J466" s="28" t="s">
+      <c r="K466" s="28" t="s">
         <v>876</v>
-      </c>
-      <c r="K466" s="28" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="467" spans="1:11" ht="13">
@@ -17268,16 +17329,16 @@
         <v>1760</v>
       </c>
       <c r="H467" s="42" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I467" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="J467" s="28" t="s">
         <v>875</v>
       </c>
-      <c r="J467" s="28" t="s">
-        <v>876</v>
-      </c>
       <c r="K467" s="28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="468" spans="1:11" ht="13">
@@ -17301,16 +17362,16 @@
         <v>1750</v>
       </c>
       <c r="H468" s="42" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I468" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="J468" s="28" t="s">
         <v>875</v>
       </c>
-      <c r="J468" s="28" t="s">
-        <v>876</v>
-      </c>
       <c r="K468" s="28" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="469" spans="1:11" ht="13">
@@ -17332,7 +17393,7 @@
         <v>1810</v>
       </c>
       <c r="K469" s="28" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="470" spans="1:11" ht="13">
@@ -17354,13 +17415,13 @@
         <v>1810</v>
       </c>
       <c r="H470" s="42" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I470" s="28" t="s">
         <v>283</v>
       </c>
       <c r="K470" s="37" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="471" spans="1:11" ht="14">
@@ -17372,7 +17433,7 @@
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E471" s="26"/>
       <c r="F471" s="28" t="s">
@@ -17382,13 +17443,13 @@
         <v>1810</v>
       </c>
       <c r="H471" s="42" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J471" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="K471" s="28" t="s">
         <v>883</v>
-      </c>
-      <c r="K471" s="28" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="472" spans="1:11" ht="13">
@@ -17412,7 +17473,7 @@
         <v>1810</v>
       </c>
       <c r="H472" s="42" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I472" s="28" t="s">
         <v>716</v>
@@ -17448,7 +17509,7 @@
         <v>719</v>
       </c>
       <c r="K473" s="28" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="474" spans="1:11" ht="13">
@@ -17470,7 +17531,7 @@
         <v>1810</v>
       </c>
       <c r="K474" s="28" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="475" spans="1:11" ht="13">
@@ -17492,10 +17553,10 @@
         <v>1810</v>
       </c>
       <c r="I475" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="K475" s="28" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="476" spans="1:11" ht="13">
@@ -17517,10 +17578,10 @@
         <v>1810</v>
       </c>
       <c r="I476" s="28" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K476" s="37" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="477" spans="1:11" ht="13">
@@ -17534,7 +17595,7 @@
         <v>319</v>
       </c>
       <c r="D477" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E477" s="26"/>
       <c r="F477" s="28" t="s">
@@ -17550,7 +17611,7 @@
         <v>730</v>
       </c>
       <c r="K477" s="28" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="478" spans="1:11" ht="13">
@@ -17564,7 +17625,7 @@
         <v>36</v>
       </c>
       <c r="D478" s="23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E478" s="26"/>
       <c r="F478" s="28" t="s">
@@ -17574,10 +17635,10 @@
         <v>1810</v>
       </c>
       <c r="H478" s="42" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="K478" s="28" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="479" spans="1:11" ht="13">
@@ -17599,10 +17660,10 @@
         <v>1810</v>
       </c>
       <c r="I479" s="28" t="s">
+        <v>891</v>
+      </c>
+      <c r="K479" s="37" t="s">
         <v>892</v>
-      </c>
-      <c r="K479" s="37" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="480" spans="1:11" ht="13">
@@ -17638,7 +17699,7 @@
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E481" s="26"/>
       <c r="F481" s="28" t="s">
@@ -17648,7 +17709,7 @@
         <v>1800</v>
       </c>
       <c r="K481" s="28" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="482" spans="1:11" ht="13">
@@ -17672,13 +17733,13 @@
         <v>1810</v>
       </c>
       <c r="H482" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J482" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="K482" s="28" t="s">
         <v>896</v>
-      </c>
-      <c r="K482" s="28" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="483" spans="1:11" ht="13">
@@ -17702,10 +17763,10 @@
         <v>1810</v>
       </c>
       <c r="I483" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="K483" s="28" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="484" spans="1:11" ht="13">
@@ -17729,13 +17790,13 @@
         <v>1810</v>
       </c>
       <c r="I484" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J484" s="28" t="s">
         <v>397</v>
       </c>
       <c r="K484" s="28" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="485" spans="1:11" ht="13">
@@ -17746,7 +17807,7 @@
         <v>129</v>
       </c>
       <c r="C485" s="29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D485" s="23" t="s">
         <v>20</v>
@@ -17762,13 +17823,13 @@
         <v>5004</v>
       </c>
       <c r="I485" s="28" t="s">
+        <v>901</v>
+      </c>
+      <c r="J485" s="36" t="s">
         <v>902</v>
       </c>
-      <c r="J485" s="36" t="s">
+      <c r="K485" s="37" t="s">
         <v>903</v>
-      </c>
-      <c r="K485" s="37" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="486" spans="1:11" ht="13">
@@ -17790,10 +17851,10 @@
         <v>1810</v>
       </c>
       <c r="I486" s="28" t="s">
+        <v>904</v>
+      </c>
+      <c r="K486" s="37" t="s">
         <v>905</v>
-      </c>
-      <c r="K486" s="37" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="487" spans="1:11" ht="13">
@@ -17807,7 +17868,7 @@
         <v>50</v>
       </c>
       <c r="D487" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E487" s="26"/>
       <c r="F487" s="28" t="s">
@@ -17817,10 +17878,10 @@
         <v>1810</v>
       </c>
       <c r="J487" s="28" t="s">
+        <v>907</v>
+      </c>
+      <c r="K487" s="28" t="s">
         <v>908</v>
-      </c>
-      <c r="K487" s="28" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="488" spans="1:11" ht="13">
@@ -17842,7 +17903,7 @@
         <v>1810</v>
       </c>
       <c r="K488" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="489" spans="1:11" ht="13">
@@ -17853,7 +17914,7 @@
         <v>133</v>
       </c>
       <c r="C489" s="29" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D489" s="23" t="s">
         <v>584</v>
@@ -17866,10 +17927,10 @@
         <v>1810</v>
       </c>
       <c r="J489" s="28" t="s">
+        <v>911</v>
+      </c>
+      <c r="K489" s="28" t="s">
         <v>912</v>
-      </c>
-      <c r="K489" s="28" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="490" spans="1:11" ht="13">
@@ -17880,10 +17941,10 @@
         <v>134</v>
       </c>
       <c r="C490" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D490" s="23" t="s">
         <v>914</v>
-      </c>
-      <c r="D490" s="23" t="s">
-        <v>915</v>
       </c>
       <c r="E490" s="26"/>
       <c r="F490" s="39" t="s">
@@ -17893,7 +17954,7 @@
         <v>1810</v>
       </c>
       <c r="K490" s="37" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="491" spans="1:11" ht="13">
@@ -17907,7 +17968,7 @@
         <v>609</v>
       </c>
       <c r="D491" s="23" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E491" s="26"/>
       <c r="F491" s="37" t="s">
@@ -17916,11 +17977,14 @@
       <c r="G491" s="30">
         <v>1810</v>
       </c>
+      <c r="H491" s="42" t="s">
+        <v>979</v>
+      </c>
       <c r="J491" s="37" t="s">
+        <v>917</v>
+      </c>
+      <c r="K491" s="37" t="s">
         <v>918</v>
-      </c>
-      <c r="K491" s="37" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="492" spans="1:11" ht="13">
@@ -17944,13 +18008,13 @@
         <v>1810</v>
       </c>
       <c r="H492" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I492" s="28" t="s">
+        <v>919</v>
+      </c>
+      <c r="K492" s="37" t="s">
         <v>920</v>
-      </c>
-      <c r="K492" s="37" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="493" spans="1:11" ht="13">
@@ -17981,7 +18045,7 @@
         <v>616</v>
       </c>
       <c r="K493" s="37" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="494" spans="1:11" ht="13">
@@ -18022,7 +18086,7 @@
         <v>141</v>
       </c>
       <c r="C495" s="29" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D495" s="23" t="s">
         <v>20</v>
@@ -18035,10 +18099,10 @@
         <v>1810</v>
       </c>
       <c r="I495" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="K495" s="37" t="s">
         <v>924</v>
-      </c>
-      <c r="K495" s="37" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="496" spans="1:11" ht="13">
@@ -18063,13 +18127,13 @@
         <v>5385</v>
       </c>
       <c r="I496" s="28" t="s">
+        <v>925</v>
+      </c>
+      <c r="J496" s="28" t="s">
         <v>926</v>
       </c>
-      <c r="J496" s="28" t="s">
+      <c r="K496" s="37" t="s">
         <v>927</v>
-      </c>
-      <c r="K496" s="37" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="497" spans="1:11" ht="13">
@@ -18092,17 +18156,15 @@
       <c r="G497" s="30">
         <v>1810</v>
       </c>
-      <c r="H497" s="42" t="s">
-        <v>993</v>
-      </c>
+      <c r="H497" s="42"/>
       <c r="I497" s="28" t="s">
+        <v>928</v>
+      </c>
+      <c r="J497" s="36" t="s">
         <v>929</v>
       </c>
-      <c r="J497" s="36" t="s">
+      <c r="K497" s="28" t="s">
         <v>930</v>
-      </c>
-      <c r="K497" s="28" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="498" spans="1:11" ht="13">
@@ -18114,14 +18176,14 @@
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="23" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E498" s="26"/>
       <c r="G498" s="30">
         <v>1810</v>
       </c>
       <c r="K498" s="37" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="499" spans="1:11" ht="13">
@@ -18146,13 +18208,13 @@
         <v>5504</v>
       </c>
       <c r="I499" s="28" t="s">
+        <v>933</v>
+      </c>
+      <c r="J499" s="36" t="s">
         <v>934</v>
       </c>
-      <c r="J499" s="36" t="s">
+      <c r="K499" s="37" t="s">
         <v>935</v>
-      </c>
-      <c r="K499" s="37" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="500" spans="1:11" ht="13">
@@ -18164,14 +18226,14 @@
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="23" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E500" s="26"/>
       <c r="G500" s="30">
         <v>1810</v>
       </c>
       <c r="K500" s="37" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="501" spans="1:11" ht="13">
@@ -18196,13 +18258,13 @@
         <v>5505</v>
       </c>
       <c r="I501" s="28" t="s">
+        <v>938</v>
+      </c>
+      <c r="J501" s="36" t="s">
         <v>939</v>
       </c>
-      <c r="J501" s="36" t="s">
+      <c r="K501" s="37" t="s">
         <v>940</v>
-      </c>
-      <c r="K501" s="37" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="502" spans="1:11" ht="13">
@@ -18226,10 +18288,10 @@
         <v>1810</v>
       </c>
       <c r="I502" s="6" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="K502" s="37" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="503" spans="1:11" ht="13">
@@ -18240,17 +18302,17 @@
         <v>149</v>
       </c>
       <c r="C503" s="29" t="s">
+        <v>942</v>
+      </c>
+      <c r="D503" s="23" t="s">
         <v>943</v>
-      </c>
-      <c r="D503" s="23" t="s">
-        <v>944</v>
       </c>
       <c r="E503" s="26"/>
       <c r="G503" s="30">
         <v>1810</v>
       </c>
       <c r="K503" s="37" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="504" spans="1:11" ht="13">
@@ -18264,14 +18326,14 @@
         <v>36</v>
       </c>
       <c r="D504" s="23" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E504" s="26"/>
       <c r="G504" s="30">
         <v>1810</v>
       </c>
       <c r="K504" s="37" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="505" spans="1:11" ht="13">
@@ -18283,14 +18345,14 @@
       </c>
       <c r="C505" s="25"/>
       <c r="D505" s="23" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E505" s="26"/>
       <c r="G505" s="30">
         <v>1810</v>
       </c>
       <c r="K505" s="37" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="506" spans="1:11" ht="13">
@@ -18301,17 +18363,17 @@
         <v>152</v>
       </c>
       <c r="C506" s="29" t="s">
+        <v>948</v>
+      </c>
+      <c r="D506" s="23" t="s">
         <v>949</v>
-      </c>
-      <c r="D506" s="23" t="s">
-        <v>950</v>
       </c>
       <c r="E506" s="26"/>
       <c r="G506" s="30">
         <v>1810</v>
       </c>
       <c r="K506" s="37" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="507" spans="1:11" ht="13">
@@ -18322,15 +18384,21 @@
         <v>153</v>
       </c>
       <c r="C507" s="25"/>
-      <c r="D507" s="23" t="s">
-        <v>779</v>
+      <c r="D507" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E507" s="26"/>
+      <c r="F507" t="s">
+        <v>296</v>
+      </c>
       <c r="G507" s="30">
         <v>1810</v>
       </c>
+      <c r="I507" t="s">
+        <v>1057</v>
+      </c>
       <c r="K507" s="37" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="508" spans="1:11" ht="13">
@@ -18342,14 +18410,14 @@
       </c>
       <c r="C508" s="25"/>
       <c r="D508" s="23" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E508" s="26"/>
       <c r="G508" s="30">
         <v>1810</v>
       </c>
       <c r="K508" s="37" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="509" spans="1:11" ht="13">
@@ -18363,14 +18431,14 @@
         <v>619</v>
       </c>
       <c r="D509" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E509" s="26"/>
       <c r="G509" s="30">
         <v>1810</v>
       </c>
       <c r="K509" s="28" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="510" spans="1:11" ht="13">
@@ -18392,16 +18460,16 @@
         <v>1810</v>
       </c>
       <c r="H510" s="28" t="s">
+        <v>956</v>
+      </c>
+      <c r="I510" s="28" t="s">
         <v>957</v>
       </c>
-      <c r="I510" s="28" t="s">
+      <c r="J510" s="28" t="s">
         <v>958</v>
       </c>
-      <c r="J510" s="28" t="s">
+      <c r="K510" s="37" t="s">
         <v>959</v>
-      </c>
-      <c r="K510" s="37" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="511" spans="1:11" ht="13">
@@ -18413,7 +18481,7 @@
       </c>
       <c r="C511" s="25"/>
       <c r="D511" s="23" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E511" s="26"/>
       <c r="G511" s="30">
@@ -18423,7 +18491,7 @@
         <v>5818</v>
       </c>
       <c r="K511" s="37" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="512" spans="1:11" ht="13">
@@ -18448,10 +18516,10 @@
         <v>5828</v>
       </c>
       <c r="I512" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="K512" s="37" t="s">
         <v>963</v>
-      </c>
-      <c r="K512" s="37" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="513" spans="1:11" ht="13">
@@ -18463,14 +18531,14 @@
       </c>
       <c r="C513" s="25"/>
       <c r="D513" s="23" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E513" s="26"/>
       <c r="G513" s="30">
         <v>1810</v>
       </c>
       <c r="K513" s="37" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="514" spans="1:11" ht="13">
@@ -18497,13 +18565,13 @@
         <v>678</v>
       </c>
       <c r="I514" s="28" t="s">
+        <v>966</v>
+      </c>
+      <c r="J514" s="28" t="s">
         <v>967</v>
       </c>
-      <c r="J514" s="28" t="s">
+      <c r="K514" s="37" t="s">
         <v>968</v>
-      </c>
-      <c r="K514" s="37" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="515" spans="1:11" ht="13">

--- a/LOCATION SHEETS/1677sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1677sLOCATIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4DC48E-6214-7345-A248-AF17248633C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4086273A-873B-C54E-B421-928236C1C123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="500" windowWidth="28100" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1677sLOCATIONS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1057">
   <si>
     <t>LOCATIONS FOR MIXTURE OF DECADES</t>
   </si>
@@ -4088,9 +4088,6 @@
   </si>
   <si>
     <t>Chelmsford (BRITTON)</t>
-  </si>
-  <si>
-    <t>EDINBURGH UNKNOWN</t>
   </si>
   <si>
     <t>RR502</t>
@@ -4896,8 +4893,8 @@
   <dimension ref="A1:K1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I491" sqref="I491"/>
+      <pane ySplit="6" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F506" sqref="F506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -6700,7 +6697,7 @@
         <v>1780</v>
       </c>
       <c r="H68" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K68" s="28" t="s">
         <v>142</v>
@@ -6725,7 +6722,7 @@
         <v>1790</v>
       </c>
       <c r="H69" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K69" s="28" t="s">
         <v>143</v>
@@ -6772,7 +6769,7 @@
         <v>1780</v>
       </c>
       <c r="H71" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K71" s="28" t="s">
         <v>147</v>
@@ -7578,7 +7575,7 @@
         <v>1740</v>
       </c>
       <c r="H100" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K100" s="28" t="s">
         <v>213</v>
@@ -7604,7 +7601,7 @@
       </c>
       <c r="H101" s="42"/>
       <c r="I101" s="42" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K101" s="28" t="s">
         <v>214</v>
@@ -7689,7 +7686,7 @@
         <v>1790</v>
       </c>
       <c r="H104" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K104" s="28" t="s">
         <v>222</v>
@@ -7714,7 +7711,7 @@
         <v>1790</v>
       </c>
       <c r="H105" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K105" s="28" t="s">
         <v>223</v>
@@ -13162,7 +13159,7 @@
         <v>1770</v>
       </c>
       <c r="H306" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I306" s="28" t="s">
         <v>579</v>
@@ -13193,7 +13190,7 @@
         <v>1770</v>
       </c>
       <c r="H307" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I307" s="28" t="s">
         <v>582</v>
@@ -13268,7 +13265,7 @@
         <v>1780</v>
       </c>
       <c r="H310" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I310" s="28" t="s">
         <v>587</v>
@@ -13298,7 +13295,7 @@
         <v>1790</v>
       </c>
       <c r="H311" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I311" s="6" t="s">
         <v>587</v>
@@ -13435,7 +13432,7 @@
         <v>1800</v>
       </c>
       <c r="I316" t="s">
-        <v>1050</v>
+        <v>584</v>
       </c>
       <c r="K316" s="28" t="s">
         <v>599</v>
@@ -14140,7 +14137,7 @@
       <c r="C343" s="29" t="s">
         <v>653</v>
       </c>
-      <c r="D343" s="23" t="s">
+      <c r="D343" s="4" t="s">
         <v>654</v>
       </c>
       <c r="E343" s="26"/>
@@ -15962,7 +15959,7 @@
         <v>1800</v>
       </c>
       <c r="I414" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K414" s="28" t="s">
         <v>779</v>
@@ -18344,7 +18341,7 @@
         <v>151</v>
       </c>
       <c r="C505" s="25"/>
-      <c r="D505" s="23" t="s">
+      <c r="D505" s="4" t="s">
         <v>946</v>
       </c>
       <c r="E505" s="26"/>
@@ -18395,7 +18392,7 @@
         <v>1810</v>
       </c>
       <c r="I507" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K507" s="37" t="s">
         <v>951</v>
